--- a/spreadsheet/macrofree/aks_checklist.en.xlsx
+++ b/spreadsheet/macrofree/aks_checklist.en.xlsx
@@ -271,7 +271,25 @@
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
     <cellStyle name="Note" xfId="2" builtinId="10"/>
   </cellStyles>
-  <dxfs count="35">
+  <dxfs count="30">
+    <dxf>
+      <border>
+        <bottom style="thin">
+          <color auto="1"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <border>
+        <bottom style="thin">
+          <color theme="2" tint="-0.09994811853389081"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
     <dxf>
       <border>
         <bottom style="thin">
@@ -285,6 +303,24 @@
       <border>
         <bottom style="thin">
           <color auto="1"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <border>
+        <bottom style="thin">
+          <color auto="1"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <border>
+        <bottom style="thin">
+          <color theme="2" tint="-0.09994811853389081"/>
         </bottom>
         <vertical/>
         <horizontal/>
@@ -329,60 +365,6 @@
         <bottom style="thin">
           <color theme="2" tint="-0.09994811853389081"/>
         </bottom>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <border>
-        <bottom style="thin">
-          <color auto="1"/>
-        </bottom>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <border>
-        <bottom style="thin">
-          <color theme="2" tint="-0.09994811853389081"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <border>
-        <bottom style="thin">
-          <color auto="1"/>
-        </bottom>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <border>
-        <bottom style="thin">
-          <color theme="2" tint="-0.09994811853389081"/>
-        </bottom>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <border>
-        <bottom style="thin">
-          <color auto="1"/>
-        </bottom>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <border>
-        <bottom style="thin">
-          <color theme="2" tint="-0.09994811853389081"/>
-        </bottom>
-        <vertical/>
-        <horizontal/>
       </border>
     </dxf>
     <dxf>
@@ -432,20 +414,6 @@
     <dxf>
       <fill>
         <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="2"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
           <bgColor rgb="FF00B050"/>
         </patternFill>
       </fill>
@@ -467,13 +435,6 @@
     <dxf>
       <fill>
         <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
           <bgColor theme="2"/>
         </patternFill>
       </fill>
@@ -481,23 +442,25 @@
     <dxf>
       <fill>
         <patternFill>
-          <bgColor rgb="FF00B050"/>
+          <bgColor rgb="FFFF0000"/>
         </patternFill>
       </fill>
     </dxf>
     <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC000"/>
-        </patternFill>
-      </fill>
+      <border>
+        <bottom style="thin">
+          <color theme="2" tint="-0.09994811853389081"/>
+        </bottom>
+      </border>
     </dxf>
     <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF00B050"/>
-        </patternFill>
-      </fill>
+      <border>
+        <bottom style="thin">
+          <color auto="1"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
     </dxf>
     <dxf>
       <border>
@@ -522,6 +485,8 @@
         <bottom style="thin">
           <color theme="2" tint="-0.09994811853389081"/>
         </bottom>
+        <vertical/>
+        <horizontal/>
       </border>
     </dxf>
     <dxf>
@@ -928,7 +893,7 @@
   <dimension ref="A2:P302"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="A7" sqref="A7"/>
+      <selection activeCell="A3" sqref="A3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultColWidth="9" defaultRowHeight="16.5"/>
@@ -955,7 +920,7 @@
     <row r="2" ht="26.25" customHeight="1">
       <c r="A2" s="13" t="inlineStr">
         <is>
-          <t>FastTrack for Azure Checklist</t>
+          <t>Azure Checklist</t>
         </is>
       </c>
       <c r="B2" s="13" t="n"/>
@@ -3713,7 +3678,7 @@
       </c>
       <c r="C65" s="21" t="inlineStr">
         <is>
-          <t>Use Azue NAT Gateway as outboundType for scaling egress traffic</t>
+          <t>Use Azure NAT Gateway as outboundType for scaling egress traffic</t>
         </is>
       </c>
       <c r="D65" s="21" t="n"/>
@@ -8953,20 +8918,118 @@
     </row>
   </sheetData>
   <autoFilter ref="A7:I168"/>
-  <conditionalFormatting sqref="H87:I308 A87:E297 G87:G297 I8:J57 J87:P297 I59:J86 L59:P86 L8:P57">
-    <cfRule type="expression" priority="57" dxfId="1">
+  <conditionalFormatting sqref="A8:E57">
+    <cfRule type="expression" priority="7" dxfId="0">
       <formula>($A8&lt;&gt;$A9)</formula>
     </cfRule>
-    <cfRule type="expression" priority="58" dxfId="0">
+    <cfRule type="expression" priority="8" dxfId="1">
       <formula>($A8&lt;&gt;"")</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F87:F297">
-    <cfRule type="expression" priority="31" dxfId="1">
+  <conditionalFormatting sqref="A58:E58 G58:H58">
+    <cfRule type="expression" priority="26" dxfId="0">
+      <formula>($A58&lt;&gt;#REF!)</formula>
+    </cfRule>
+    <cfRule type="expression" priority="27" dxfId="1">
+      <formula>($A58&lt;&gt;"")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A59:E86">
+    <cfRule type="expression" priority="9" dxfId="0">
+      <formula>($A59&lt;&gt;$A60)</formula>
+    </cfRule>
+    <cfRule type="expression" priority="10" dxfId="1">
+      <formula>($A59&lt;&gt;"")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A87:G297">
+    <cfRule type="expression" priority="31" dxfId="0">
       <formula>($A87&lt;&gt;$A88)</formula>
     </cfRule>
-    <cfRule type="expression" priority="37" dxfId="4">
+    <cfRule type="expression" priority="37" dxfId="8">
       <formula>($A87&lt;&gt;"")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D8">
+    <cfRule type="cellIs" priority="25" operator="equal" dxfId="12">
+      <formula>"Open"</formula>
+    </cfRule>
+    <cfRule type="cellIs" priority="24" operator="equal" dxfId="13">
+      <formula>"N/A"</formula>
+    </cfRule>
+    <cfRule type="cellIs" priority="23" operator="equal" dxfId="14">
+      <formula>"Fullfilled"</formula>
+    </cfRule>
+    <cfRule type="cellIs" priority="22" operator="equal" dxfId="15">
+      <formula>"Not verified"</formula>
+    </cfRule>
+    <cfRule type="cellIs" priority="21" operator="equal" dxfId="14">
+      <formula>"Fulfilled"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D22:D24">
+    <cfRule type="cellIs" priority="11" operator="equal" dxfId="14">
+      <formula>"Fulfilled"</formula>
+    </cfRule>
+    <cfRule type="cellIs" priority="12" operator="equal" dxfId="15">
+      <formula>"Not verified"</formula>
+    </cfRule>
+    <cfRule type="cellIs" priority="13" operator="equal" dxfId="14">
+      <formula>"Fullfilled"</formula>
+    </cfRule>
+    <cfRule type="cellIs" priority="14" operator="equal" dxfId="13">
+      <formula>"N/A"</formula>
+    </cfRule>
+    <cfRule type="cellIs" priority="15" operator="equal" dxfId="12">
+      <formula>"Open"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F8:F86">
+    <cfRule type="expression" priority="5" dxfId="0">
+      <formula>($A8&lt;&gt;$A9)</formula>
+    </cfRule>
+    <cfRule type="expression" priority="6" dxfId="8">
+      <formula>($A8&lt;&gt;"")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F58">
+    <cfRule type="expression" priority="28" dxfId="0">
+      <formula>($A58&lt;&gt;#REF!)</formula>
+    </cfRule>
+    <cfRule type="expression" priority="29" dxfId="8">
+      <formula>($A58&lt;&gt;"")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G8:P57 G59:P86">
+    <cfRule type="expression" priority="1" dxfId="0">
+      <formula>($A8&lt;&gt;$A9)</formula>
+    </cfRule>
+    <cfRule type="expression" priority="2" dxfId="1">
+      <formula>($A8&lt;&gt;"")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I58:J58 L58:P58">
+    <cfRule type="expression" priority="251" dxfId="1">
+      <formula>($A58&lt;&gt;"")</formula>
+    </cfRule>
+    <cfRule type="expression" priority="250" dxfId="0">
+      <formula>($A58&lt;&gt;#REF!)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H87:I308 J87:P297">
+    <cfRule type="expression" priority="57" dxfId="0">
+      <formula>($A87&lt;&gt;$A88)</formula>
+    </cfRule>
+    <cfRule type="expression" priority="58" dxfId="1">
+      <formula>($A87&lt;&gt;"")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="K58">
+    <cfRule type="expression" priority="4" dxfId="1">
+      <formula>($A58&lt;&gt;"")</formula>
+    </cfRule>
+    <cfRule type="expression" priority="3" dxfId="0">
+      <formula>($A58&lt;&gt;#REF!)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="L6:P6">
@@ -8978,123 +9041,8 @@
       </dataBar>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="I58:J58 L58:P58">
-    <cfRule type="expression" priority="250" dxfId="1">
-      <formula>($A58&lt;&gt;#REF!)</formula>
-    </cfRule>
-    <cfRule type="expression" priority="251" dxfId="0">
-      <formula>($A58&lt;&gt;"")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D8">
-    <cfRule type="cellIs" priority="21" operator="equal" dxfId="16">
-      <formula>"Fulfilled"</formula>
-    </cfRule>
-    <cfRule type="cellIs" priority="22" operator="equal" dxfId="17">
-      <formula>"Not verified"</formula>
-    </cfRule>
-    <cfRule type="cellIs" priority="23" operator="equal" dxfId="16">
-      <formula>"Fullfilled"</formula>
-    </cfRule>
-    <cfRule type="cellIs" priority="24" operator="equal" dxfId="15">
-      <formula>"N/A"</formula>
-    </cfRule>
-    <cfRule type="cellIs" priority="25" operator="equal" dxfId="14">
-      <formula>"Open"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D23:D24">
-    <cfRule type="cellIs" priority="16" operator="equal" dxfId="16">
-      <formula>"Fulfilled"</formula>
-    </cfRule>
-    <cfRule type="cellIs" priority="17" operator="equal" dxfId="17">
-      <formula>"Not verified"</formula>
-    </cfRule>
-    <cfRule type="cellIs" priority="18" operator="equal" dxfId="16">
-      <formula>"Fullfilled"</formula>
-    </cfRule>
-    <cfRule type="cellIs" priority="19" operator="equal" dxfId="15">
-      <formula>"N/A"</formula>
-    </cfRule>
-    <cfRule type="cellIs" priority="20" operator="equal" dxfId="14">
-      <formula>"Open"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D22">
-    <cfRule type="cellIs" priority="11" operator="equal" dxfId="16">
-      <formula>"Fulfilled"</formula>
-    </cfRule>
-    <cfRule type="cellIs" priority="12" operator="equal" dxfId="17">
-      <formula>"Not verified"</formula>
-    </cfRule>
-    <cfRule type="cellIs" priority="13" operator="equal" dxfId="16">
-      <formula>"Fullfilled"</formula>
-    </cfRule>
-    <cfRule type="cellIs" priority="14" operator="equal" dxfId="15">
-      <formula>"N/A"</formula>
-    </cfRule>
-    <cfRule type="cellIs" priority="15" operator="equal" dxfId="14">
-      <formula>"Open"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A44:E57 A59:E86 G59:H86 G8:H57">
-    <cfRule type="expression" priority="9" dxfId="1">
-      <formula>($A8&lt;&gt;$A9)</formula>
-    </cfRule>
-    <cfRule type="expression" priority="10" dxfId="0">
-      <formula>($A8&lt;&gt;"")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A8:E43">
-    <cfRule type="expression" priority="7" dxfId="1">
-      <formula>($A8&lt;&gt;$A9)</formula>
-    </cfRule>
-    <cfRule type="expression" priority="8" dxfId="0">
-      <formula>($A8&lt;&gt;"")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="F8:F86">
-    <cfRule type="expression" priority="5" dxfId="1">
-      <formula>($A8&lt;&gt;$A9)</formula>
-    </cfRule>
-    <cfRule type="expression" priority="6" dxfId="4">
-      <formula>($A8&lt;&gt;"")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A58:E58 G58:H58">
-    <cfRule type="expression" priority="26" dxfId="1">
-      <formula>($A58&lt;&gt;#REF!)</formula>
-    </cfRule>
-    <cfRule type="expression" priority="27" dxfId="0">
-      <formula>($A58&lt;&gt;"")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="F58">
-    <cfRule type="expression" priority="28" dxfId="1">
-      <formula>($A58&lt;&gt;#REF!)</formula>
-    </cfRule>
-    <cfRule type="expression" priority="29" dxfId="4">
-      <formula>($A58&lt;&gt;"")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="K8:K57 K59:K86">
-    <cfRule type="expression" priority="1" dxfId="1">
-      <formula>($A8&lt;&gt;$A9)</formula>
-    </cfRule>
-    <cfRule type="expression" priority="2" dxfId="0">
-      <formula>($A8&lt;&gt;"")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="K58">
-    <cfRule type="expression" priority="3" dxfId="1">
-      <formula>($A58&lt;&gt;#REF!)</formula>
-    </cfRule>
-    <cfRule type="expression" priority="4" dxfId="0">
-      <formula>($A58&lt;&gt;"")</formula>
-    </cfRule>
-  </conditionalFormatting>
   <dataValidations count="1">
-    <dataValidation sqref="F8:F119" showErrorMessage="1" showInputMessage="1" allowBlank="1" type="list">
+    <dataValidation sqref="F8:F119" showDropDown="0" showInputMessage="0" showErrorMessage="0" allowBlank="1" type="list">
       <formula1>=Values!$B$2:$B$6</formula1>
     </dataValidation>
   </dataValidations>

--- a/spreadsheet/macrofree/aks_checklist.en.xlsx
+++ b/spreadsheet/macrofree/aks_checklist.en.xlsx
@@ -5713,7 +5713,7 @@
       </c>
       <c r="C109" s="21" t="inlineStr">
         <is>
-          <t>If required for scalability consider adding more than 5000 nodes</t>
+          <t>If more than 5000 nodes are required for scalability then consider using an additional AKS cluster</t>
         </is>
       </c>
       <c r="D109" s="21" t="n"/>

--- a/spreadsheet/macrofree/aks_checklist.en.xlsx
+++ b/spreadsheet/macrofree/aks_checklist.en.xlsx
@@ -1667,7 +1667,7 @@
       </c>
       <c r="C21" s="21" t="inlineStr">
         <is>
-          <t>If required scale NodePool snapshots</t>
+          <t>Use scale down mode to delete/delallocate nodes</t>
         </is>
       </c>
       <c r="D21" s="21" t="n"/>
@@ -1684,7 +1684,7 @@
       <c r="G21" s="21" t="n"/>
       <c r="H21" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/aks/node-pool-snapshot</t>
+          <t>https://learn.microsoft.com/azure/aks/scale-down-mode</t>
         </is>
       </c>
       <c r="I21" s="15" t="n"/>
@@ -1692,7 +1692,7 @@
       <c r="K21" s="22" t="n"/>
       <c r="L21" s="25" t="inlineStr">
         <is>
-          <t>64d1a846-e28a-4b6b-9a33-22a635c15a21</t>
+          <t>4d3dfbab-9924-4831-a68d-fdf0d72f462c</t>
         </is>
       </c>
       <c r="M21" s="25" t="n"/>
@@ -1713,13 +1713,13 @@
       </c>
       <c r="C22" s="21" t="inlineStr">
         <is>
-          <t>Use scale down mode to delete/delallocate nodes</t>
+          <t>When required use multi-instance partioning GPU on AKS Clusters</t>
         </is>
       </c>
       <c r="D22" s="21" t="n"/>
       <c r="E22" s="21" t="inlineStr">
         <is>
-          <t>Low</t>
+          <t>Medium</t>
         </is>
       </c>
       <c r="F22" t="inlineStr">
@@ -1730,7 +1730,7 @@
       <c r="G22" s="21" t="n"/>
       <c r="H22" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/aks/scale-down-mode</t>
+          <t>https://learn.microsoft.com/azure/aks/gpu-multi-instance</t>
         </is>
       </c>
       <c r="I22" s="15" t="n"/>
@@ -1738,7 +1738,7 @@
       <c r="K22" s="22" t="n"/>
       <c r="L22" s="25" t="inlineStr">
         <is>
-          <t>4d3dfbab-9924-4831-a68d-fdf0d72f462c</t>
+          <t>87e651ea-bc4a-4a87-a6df-c06a4b570ebc</t>
         </is>
       </c>
       <c r="M22" s="25" t="n"/>
@@ -1759,13 +1759,13 @@
       </c>
       <c r="C23" s="21" t="inlineStr">
         <is>
-          <t>When required use multi-instance partioning GPU on AKS Clusters</t>
+          <t>If running a Dev/Test cluster use NodePool Start/Stop</t>
         </is>
       </c>
       <c r="D23" s="21" t="n"/>
       <c r="E23" s="21" t="inlineStr">
         <is>
-          <t>Medium</t>
+          <t>Low</t>
         </is>
       </c>
       <c r="F23" t="inlineStr">
@@ -1776,7 +1776,7 @@
       <c r="G23" s="21" t="n"/>
       <c r="H23" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/aks/gpu-multi-instance</t>
+          <t>https://learn.microsoft.com/azure/aks/start-stop-nodepools</t>
         </is>
       </c>
       <c r="I23" s="15" t="n"/>
@@ -1784,7 +1784,7 @@
       <c r="K23" s="22" t="n"/>
       <c r="L23" s="25" t="inlineStr">
         <is>
-          <t>87e651ea-bc4a-4a87-a6df-c06a4b570ebc</t>
+          <t>2b72a08b-0410-4cd6-9093-e068a5cf27e8</t>
         </is>
       </c>
       <c r="M23" s="25" t="n"/>
@@ -1795,23 +1795,23 @@
     <row r="24" ht="16.5" customHeight="1">
       <c r="A24" s="21" t="inlineStr">
         <is>
-          <t>Cost Governance</t>
+          <t>Governance and Security</t>
         </is>
       </c>
       <c r="B24" s="21" t="inlineStr">
         <is>
-          <t>Cost</t>
+          <t>Compliance</t>
         </is>
       </c>
       <c r="C24" s="21" t="inlineStr">
         <is>
-          <t>If running a Dev/Test cluster use NodePool Start/Stop</t>
+          <t>Use Azure Policy for Kubernetes to ensure cluster compliance</t>
         </is>
       </c>
       <c r="D24" s="21" t="n"/>
       <c r="E24" s="21" t="inlineStr">
         <is>
-          <t>Low</t>
+          <t>Medium</t>
         </is>
       </c>
       <c r="F24" t="inlineStr">
@@ -1822,7 +1822,7 @@
       <c r="G24" s="21" t="n"/>
       <c r="H24" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/aks/start-stop-nodepools</t>
+          <t>https://learn.microsoft.com/azure/governance/policy/concepts/policy-for-kubernetes</t>
         </is>
       </c>
       <c r="I24" s="15" t="n"/>
@@ -1830,7 +1830,7 @@
       <c r="K24" s="22" t="n"/>
       <c r="L24" s="25" t="inlineStr">
         <is>
-          <t>2b72a08b-0410-4cd6-9093-e068a5cf27e8</t>
+          <t>9ca48e4a-85e2-4223-bce8-bb12307ca5f1</t>
         </is>
       </c>
       <c r="M24" s="25" t="n"/>
@@ -1851,7 +1851,7 @@
       </c>
       <c r="C25" s="21" t="inlineStr">
         <is>
-          <t>Use Azure Policy for Kubernetes to ensure cluster compliance</t>
+          <t>Separate applications from the control plane with user/system nodepools</t>
         </is>
       </c>
       <c r="D25" s="21" t="n"/>
@@ -1868,7 +1868,7 @@
       <c r="G25" s="21" t="n"/>
       <c r="H25" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/governance/policy/concepts/policy-for-kubernetes</t>
+          <t>https://learn.microsoft.com/azure/aks/use-system-pools</t>
         </is>
       </c>
       <c r="I25" s="15" t="n"/>
@@ -1876,7 +1876,7 @@
       <c r="K25" s="22" t="n"/>
       <c r="L25" s="25" t="inlineStr">
         <is>
-          <t>9ca48e4a-85e2-4223-bce8-bb12307ca5f1</t>
+          <t>6f158e3e-a3a9-42c2-be7e-2165c3a87af4</t>
         </is>
       </c>
       <c r="M25" s="25" t="n"/>
@@ -1897,13 +1897,13 @@
       </c>
       <c r="C26" s="21" t="inlineStr">
         <is>
-          <t>Separate applications from the control plane with user/system nodepools</t>
+          <t>Add taint to your system nodepool to make it dedicated</t>
         </is>
       </c>
       <c r="D26" s="21" t="n"/>
       <c r="E26" s="21" t="inlineStr">
         <is>
-          <t>Medium</t>
+          <t>Low</t>
         </is>
       </c>
       <c r="F26" t="inlineStr">
@@ -1922,7 +1922,7 @@
       <c r="K26" s="22" t="n"/>
       <c r="L26" s="25" t="inlineStr">
         <is>
-          <t>6f158e3e-a3a9-42c2-be7e-2165c3a87af4</t>
+          <t>a7a1f893-9bda-4477-98f2-4c116775c2ea</t>
         </is>
       </c>
       <c r="M26" s="25" t="n"/>
@@ -1943,13 +1943,13 @@
       </c>
       <c r="C27" s="21" t="inlineStr">
         <is>
-          <t>Add taint to your system nodepool to make it dedicated</t>
+          <t>Use a private registry for your images, such as ACR</t>
         </is>
       </c>
       <c r="D27" s="21" t="n"/>
       <c r="E27" s="21" t="inlineStr">
         <is>
-          <t>Low</t>
+          <t>Medium</t>
         </is>
       </c>
       <c r="F27" t="inlineStr">
@@ -1960,14 +1960,14 @@
       <c r="G27" s="21" t="n"/>
       <c r="H27" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/aks/use-system-pools</t>
+          <t>https://learn.microsoft.com/azure/container-registry/</t>
         </is>
       </c>
       <c r="J27" s="22" t="n"/>
       <c r="K27" s="22" t="n"/>
       <c r="L27" s="25" t="inlineStr">
         <is>
-          <t>a7a1f893-9bda-4477-98f2-4c116775c2ea</t>
+          <t>55b46a94-8008-4ae7-b7e4-b475b6c8bdbf</t>
         </is>
       </c>
       <c r="M27" s="25" t="n"/>
@@ -1988,7 +1988,7 @@
       </c>
       <c r="C28" s="21" t="inlineStr">
         <is>
-          <t>Use a private registry for your images, such as ACR</t>
+          <t>Scan your images for vulnerabilities</t>
         </is>
       </c>
       <c r="D28" s="21" t="n"/>
@@ -2005,14 +2005,14 @@
       <c r="G28" s="21" t="n"/>
       <c r="H28" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/container-registry/</t>
+          <t>https://learn.microsoft.com/azure/security-center/container-security</t>
         </is>
       </c>
       <c r="J28" s="22" t="n"/>
       <c r="K28" s="22" t="n"/>
       <c r="L28" s="25" t="inlineStr">
         <is>
-          <t>55b46a94-8008-4ae7-b7e4-b475b6c8bdbf</t>
+          <t>59bce65d-e8a0-43f9-9879-468d66a786d6</t>
         </is>
       </c>
       <c r="M28" s="25" t="n"/>
@@ -2033,7 +2033,7 @@
       </c>
       <c r="C29" s="21" t="inlineStr">
         <is>
-          <t>Scan your images for vulnerabilities</t>
+          <t>Use Azure Security Center to detect security posture vulnerabilities</t>
         </is>
       </c>
       <c r="D29" s="21" t="n"/>
@@ -2057,7 +2057,7 @@
       <c r="K29" s="22" t="n"/>
       <c r="L29" s="25" t="inlineStr">
         <is>
-          <t>59bce65d-e8a0-43f9-9879-468d66a786d6</t>
+          <t>cc639637-a652-42ac-89e8-06965388e9de</t>
         </is>
       </c>
       <c r="M29" s="25" t="n"/>
@@ -2078,13 +2078,13 @@
       </c>
       <c r="C30" s="21" t="inlineStr">
         <is>
-          <t>Use Azure Security Center to detect security posture vulnerabilities</t>
+          <t>If required configure FIPS</t>
         </is>
       </c>
       <c r="D30" s="21" t="n"/>
       <c r="E30" s="21" t="inlineStr">
         <is>
-          <t>Medium</t>
+          <t>Low</t>
         </is>
       </c>
       <c r="F30" t="inlineStr">
@@ -2095,14 +2095,14 @@
       <c r="G30" s="21" t="n"/>
       <c r="H30" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/security-center/container-security</t>
+          <t>https://learn.microsoft.com/azure/aks/use-multiple-node-pools#add-a-fips-enabled-node-pool</t>
         </is>
       </c>
       <c r="J30" s="22" t="n"/>
       <c r="K30" s="22" t="n"/>
       <c r="L30" s="25" t="inlineStr">
         <is>
-          <t>cc639637-a652-42ac-89e8-06965388e9de</t>
+          <t>42d4aefe-2383-470e-b019-c30df24996b2</t>
         </is>
       </c>
       <c r="M30" s="25" t="n"/>
@@ -2123,13 +2123,13 @@
       </c>
       <c r="C31" s="21" t="inlineStr">
         <is>
-          <t>If required configure FIPS</t>
+          <t>Define app separation requirements (namespace/nodepool/cluster)</t>
         </is>
       </c>
       <c r="D31" s="21" t="n"/>
       <c r="E31" s="21" t="inlineStr">
         <is>
-          <t>Low</t>
+          <t>High</t>
         </is>
       </c>
       <c r="F31" t="inlineStr">
@@ -2140,14 +2140,14 @@
       <c r="G31" s="21" t="n"/>
       <c r="H31" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/aks/use-multiple-node-pools#add-a-fips-enabled-node-pool</t>
+          <t>https://learn.microsoft.com/azure/aks/operator-best-practices-cluster-isolation</t>
         </is>
       </c>
       <c r="J31" s="22" t="n"/>
       <c r="K31" s="22" t="n"/>
       <c r="L31" s="25" t="inlineStr">
         <is>
-          <t>42d4aefe-2383-470e-b019-c30df24996b2</t>
+          <t>d167dd18-2b0a-4c24-8b99-9a646f8389a7</t>
         </is>
       </c>
       <c r="M31" s="25" t="n"/>
@@ -2163,18 +2163,18 @@
       </c>
       <c r="B32" s="21" t="inlineStr">
         <is>
-          <t>Compliance</t>
+          <t>Secrets</t>
         </is>
       </c>
       <c r="C32" s="21" t="inlineStr">
         <is>
-          <t>Define app separation requirements (namespace/nodepool/cluster)</t>
+          <t>Store your secrets in Azure Key Vault with the CSI Secrets Store driver</t>
         </is>
       </c>
       <c r="D32" s="21" t="n"/>
       <c r="E32" s="21" t="inlineStr">
         <is>
-          <t>High</t>
+          <t>Medium</t>
         </is>
       </c>
       <c r="F32" t="inlineStr">
@@ -2185,7 +2185,7 @@
       <c r="G32" s="21" t="n"/>
       <c r="H32" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/aks/operator-best-practices-cluster-isolation</t>
+          <t>https://github.com/Azure/secrets-store-csi-driver-provider-azure</t>
         </is>
       </c>
       <c r="I32" s="15" t="n"/>
@@ -2193,7 +2193,7 @@
       <c r="K32" s="22" t="n"/>
       <c r="L32" s="25" t="inlineStr">
         <is>
-          <t>d167dd18-2b0a-4c24-8b99-9a646f8389a7</t>
+          <t>5e3df584-eccc-4d97-a3b6-bcda3b50eb2e</t>
         </is>
       </c>
       <c r="M32" s="25" t="n"/>
@@ -2214,13 +2214,13 @@
       </c>
       <c r="C33" s="21" t="inlineStr">
         <is>
-          <t>Store your secrets in Azure Key Vault with the CSI Secrets Store driver</t>
+          <t>If using Service Principals for the cluster, refresh credentials periodically (like quarterly)</t>
         </is>
       </c>
       <c r="D33" s="21" t="n"/>
       <c r="E33" s="21" t="inlineStr">
         <is>
-          <t>Medium</t>
+          <t>High</t>
         </is>
       </c>
       <c r="F33" t="inlineStr">
@@ -2231,7 +2231,7 @@
       <c r="G33" s="21" t="n"/>
       <c r="H33" s="15" t="inlineStr">
         <is>
-          <t>https://github.com/Azure/secrets-store-csi-driver-provider-azure</t>
+          <t>https://learn.microsoft.com/azure/aks/update-credentials</t>
         </is>
       </c>
       <c r="I33" s="15" t="n"/>
@@ -2239,7 +2239,7 @@
       <c r="K33" s="23" t="n"/>
       <c r="L33" s="25" t="inlineStr">
         <is>
-          <t>5e3df584-eccc-4d97-a3b6-bcda3b50eb2e</t>
+          <t>b03dda6d-58d7-4c89-8ddb-107d5769ae66</t>
         </is>
       </c>
       <c r="M33" s="25" t="n"/>
@@ -2260,13 +2260,13 @@
       </c>
       <c r="C34" s="21" t="inlineStr">
         <is>
-          <t>If using Service Principals for the cluster, refresh credentials periodically (like quarterly)</t>
+          <t>If required add Key Management Service etcd encryption</t>
         </is>
       </c>
       <c r="D34" s="21" t="n"/>
       <c r="E34" s="21" t="inlineStr">
         <is>
-          <t>High</t>
+          <t>Medium</t>
         </is>
       </c>
       <c r="F34" t="inlineStr">
@@ -2277,7 +2277,7 @@
       <c r="G34" s="21" t="n"/>
       <c r="H34" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/aks/update-credentials</t>
+          <t>https://learn.microsoft.com/azure/aks/use-kms-etcd-encryption</t>
         </is>
       </c>
       <c r="I34" s="15" t="n"/>
@@ -2285,7 +2285,7 @@
       <c r="K34" s="22" t="n"/>
       <c r="L34" s="25" t="inlineStr">
         <is>
-          <t>b03dda6d-58d7-4c89-8ddb-107d5769ae66</t>
+          <t>e7ba73a3-0508-4f80-806f-527db30cee96</t>
         </is>
       </c>
       <c r="M34" s="25" t="n"/>
@@ -2306,13 +2306,13 @@
       </c>
       <c r="C35" s="21" t="inlineStr">
         <is>
-          <t>If required add Key Management Service etcd encryption</t>
+          <t>If required consider using Confidential Compute for AKS</t>
         </is>
       </c>
       <c r="D35" s="21" t="n"/>
       <c r="E35" s="21" t="inlineStr">
         <is>
-          <t>Medium</t>
+          <t>Low</t>
         </is>
       </c>
       <c r="F35" t="inlineStr">
@@ -2323,7 +2323,7 @@
       <c r="G35" s="21" t="n"/>
       <c r="H35" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/aks/use-kms-etcd-encryption</t>
+          <t>https://learn.microsoft.com/azure/confidential-computing/confidential-nodes-aks-overview</t>
         </is>
       </c>
       <c r="I35" s="15" t="n"/>
@@ -2331,7 +2331,7 @@
       <c r="K35" s="22" t="n"/>
       <c r="L35" s="25" t="inlineStr">
         <is>
-          <t>e7ba73a3-0508-4f80-806f-527db30cee96</t>
+          <t>ec8e4e42-0344-41b0-b865-9123e8956d31</t>
         </is>
       </c>
       <c r="M35" s="25" t="n"/>
@@ -2352,13 +2352,13 @@
       </c>
       <c r="C36" s="21" t="inlineStr">
         <is>
-          <t>If required consider using Confidential Compute for AKS</t>
+          <t>Consider using Defender for Containers</t>
         </is>
       </c>
       <c r="D36" s="21" t="n"/>
       <c r="E36" s="21" t="inlineStr">
         <is>
-          <t>Low</t>
+          <t>Medium</t>
         </is>
       </c>
       <c r="F36" t="inlineStr">
@@ -2369,7 +2369,7 @@
       <c r="G36" s="21" t="n"/>
       <c r="H36" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/confidential-computing/confidential-nodes-aks-overview</t>
+          <t>https://learn.microsoft.com/azure/defender-for-cloud/defender-for-containers-enable</t>
         </is>
       </c>
       <c r="I36" s="15" t="n"/>
@@ -2377,7 +2377,7 @@
       <c r="K36" s="22" t="n"/>
       <c r="L36" s="25" t="inlineStr">
         <is>
-          <t>ec8e4e42-0344-41b0-b865-9123e8956d31</t>
+          <t>c9e95ffe-6dd1-4a17-8c5f-110389ca9b21</t>
         </is>
       </c>
       <c r="M36" s="25" t="n"/>
@@ -2388,23 +2388,23 @@
     <row r="37" ht="16.5" customHeight="1">
       <c r="A37" s="21" t="inlineStr">
         <is>
-          <t>Governance and Security</t>
+          <t>Identity and Access Management</t>
         </is>
       </c>
       <c r="B37" s="21" t="inlineStr">
         <is>
-          <t>Secrets</t>
+          <t>Identity</t>
         </is>
       </c>
       <c r="C37" s="21" t="inlineStr">
         <is>
-          <t>Consider using Defender for Containers</t>
+          <t>Use managed identities instead of Service Principals</t>
         </is>
       </c>
       <c r="D37" s="21" t="n"/>
       <c r="E37" s="21" t="inlineStr">
         <is>
-          <t>Medium</t>
+          <t>High</t>
         </is>
       </c>
       <c r="F37" t="inlineStr">
@@ -2415,7 +2415,7 @@
       <c r="G37" s="21" t="n"/>
       <c r="H37" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/defender-for-cloud/defender-for-containers-enable</t>
+          <t>https://learn.microsoft.com/azure/aks/use-managed-identity</t>
         </is>
       </c>
       <c r="I37" s="15" t="n"/>
@@ -2423,7 +2423,7 @@
       <c r="K37" s="22" t="n"/>
       <c r="L37" s="25" t="inlineStr">
         <is>
-          <t>c9e95ffe-6dd1-4a17-8c5f-110389ca9b21</t>
+          <t>ed127dd1-42b0-46b2-8c69-99a646f3389a</t>
         </is>
       </c>
       <c r="M37" s="25" t="n"/>
@@ -2444,13 +2444,13 @@
       </c>
       <c r="C38" s="21" t="inlineStr">
         <is>
-          <t>Use managed identities instead of Service Principals</t>
+          <t>Integrate authentication with AAD (using the managed integration)</t>
         </is>
       </c>
       <c r="D38" s="21" t="n"/>
       <c r="E38" s="21" t="inlineStr">
         <is>
-          <t>High</t>
+          <t>Medium</t>
         </is>
       </c>
       <c r="F38" t="inlineStr">
@@ -2461,7 +2461,7 @@
       <c r="G38" s="21" t="n"/>
       <c r="H38" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/aks/use-managed-identity</t>
+          <t>https://learn.microsoft.com/azure/aks/managed-aad</t>
         </is>
       </c>
       <c r="I38" s="15" t="n"/>
@@ -2469,7 +2469,7 @@
       <c r="K38" s="22" t="n"/>
       <c r="L38" s="25" t="inlineStr">
         <is>
-          <t>ed127dd1-42b0-46b2-8c69-99a646f3389a</t>
+          <t>7e42c78e-78c0-46a6-8a21-94956e698dc4</t>
         </is>
       </c>
       <c r="M38" s="25" t="n"/>
@@ -2490,7 +2490,7 @@
       </c>
       <c r="C39" s="21" t="inlineStr">
         <is>
-          <t>Integrate authentication with AAD (using the managed integration)</t>
+          <t>Limit access to admin kubeconfig (get-credentials --admin)</t>
         </is>
       </c>
       <c r="D39" s="21" t="n"/>
@@ -2507,7 +2507,7 @@
       <c r="G39" s="21" t="n"/>
       <c r="H39" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/aks/managed-aad</t>
+          <t>https://learn.microsoft.com/azure/aks/control-kubeconfig-access</t>
         </is>
       </c>
       <c r="I39" s="15" t="n"/>
@@ -2515,7 +2515,7 @@
       <c r="K39" s="22" t="n"/>
       <c r="L39" s="25" t="inlineStr">
         <is>
-          <t>7e42c78e-78c0-46a6-8a21-94956e698dc4</t>
+          <t>a2fe27b2-e287-401a-8352-beedf79b488d</t>
         </is>
       </c>
       <c r="M39" s="25" t="n"/>
@@ -2536,7 +2536,7 @@
       </c>
       <c r="C40" s="21" t="inlineStr">
         <is>
-          <t>Limit access to admin kubeconfig (get-credentials --admin)</t>
+          <t>Integrate authorization with AAD RBAC</t>
         </is>
       </c>
       <c r="D40" s="21" t="n"/>
@@ -2553,7 +2553,7 @@
       <c r="G40" s="21" t="n"/>
       <c r="H40" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/aks/control-kubeconfig-access</t>
+          <t>https://learn.microsoft.com/azure/aks/manage-azure-rbac</t>
         </is>
       </c>
       <c r="I40" s="15" t="n"/>
@@ -2561,7 +2561,7 @@
       <c r="K40" s="22" t="n"/>
       <c r="L40" s="25" t="inlineStr">
         <is>
-          <t>a2fe27b2-e287-401a-8352-beedf79b488d</t>
+          <t>eec4962c-c3bd-421b-b77f-26e5e6b3bec3</t>
         </is>
       </c>
       <c r="M40" s="25" t="n"/>
@@ -2582,13 +2582,13 @@
       </c>
       <c r="C41" s="21" t="inlineStr">
         <is>
-          <t>Integrate authorization with AAD RBAC</t>
+          <t>Use namespaces for restricting RBAC privilege in Kubernetes</t>
         </is>
       </c>
       <c r="D41" s="21" t="n"/>
       <c r="E41" s="21" t="inlineStr">
         <is>
-          <t>Medium</t>
+          <t>High</t>
         </is>
       </c>
       <c r="F41" t="inlineStr">
@@ -2599,7 +2599,7 @@
       <c r="G41" s="21" t="n"/>
       <c r="H41" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/aks/manage-azure-rbac</t>
+          <t>https://learn.microsoft.com/azure/aks/operator-best-practices-identity</t>
         </is>
       </c>
       <c r="I41" s="15" t="n"/>
@@ -2607,7 +2607,7 @@
       <c r="K41" s="22" t="n"/>
       <c r="L41" s="25" t="inlineStr">
         <is>
-          <t>eec4962c-c3bd-421b-b77f-26e5e6b3bec3</t>
+          <t>d4f3537c-1346-4dc5-9027-a71ffe1bd05d</t>
         </is>
       </c>
       <c r="M41" s="25" t="n"/>
@@ -2628,13 +2628,13 @@
       </c>
       <c r="C42" s="21" t="inlineStr">
         <is>
-          <t>Use namespaces for restricting RBAC privilege in Kubernetes</t>
+          <t>For POD Identity Access Management use Azure AD Workload Identity (preview)</t>
         </is>
       </c>
       <c r="D42" s="21" t="n"/>
       <c r="E42" s="21" t="inlineStr">
         <is>
-          <t>High</t>
+          <t>Medium</t>
         </is>
       </c>
       <c r="F42" t="inlineStr">
@@ -2645,7 +2645,7 @@
       <c r="G42" s="21" t="n"/>
       <c r="H42" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/aks/operator-best-practices-identity</t>
+          <t>https://learn.microsoft.com/azure/aks/workload-identity-migration-sidecar</t>
         </is>
       </c>
       <c r="I42" s="15" t="n"/>
@@ -2653,7 +2653,7 @@
       <c r="K42" s="22" t="n"/>
       <c r="L42" s="25" t="inlineStr">
         <is>
-          <t>d4f3537c-1346-4dc5-9027-a71ffe1bd05d</t>
+          <t>d2e0d5d7-71d4-41e3-910c-c57b4a4b1410</t>
         </is>
       </c>
       <c r="M42" s="25" t="n"/>
@@ -2674,7 +2674,7 @@
       </c>
       <c r="C43" s="21" t="inlineStr">
         <is>
-          <t>For POD Identity Access Management use Azure AD Workload Identity (preview)</t>
+          <t>For AKS non-interactive logins use kubelogin (preview)</t>
         </is>
       </c>
       <c r="D43" s="21" t="n"/>
@@ -2691,7 +2691,7 @@
       <c r="G43" s="21" t="n"/>
       <c r="H43" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/aks/workload-identity-migration-sidecar</t>
+          <t>https://learn.microsoft.com/azure/aks/managed-aad#non-interactive-sign-in-with-kubelogin</t>
         </is>
       </c>
       <c r="I43" s="15" t="n"/>
@@ -2699,7 +2699,7 @@
       <c r="K43" s="23" t="n"/>
       <c r="L43" s="25" t="inlineStr">
         <is>
-          <t>d2e0d5d7-71d4-41e3-910c-c57b4a4b1410</t>
+          <t>f4dcf690-1b30-407d-abab-6f8aa780d3a3</t>
         </is>
       </c>
       <c r="M43" s="25" t="n"/>
@@ -2720,7 +2720,7 @@
       </c>
       <c r="C44" s="21" t="inlineStr">
         <is>
-          <t>For AKS non-interactive logins use kubelogin (preview)</t>
+          <t>Disable AKS local accounts</t>
         </is>
       </c>
       <c r="D44" s="21" t="n"/>
@@ -2737,7 +2737,7 @@
       <c r="G44" s="21" t="n"/>
       <c r="H44" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/aks/managed-aad#non-interactive-sign-in-with-kubelogin</t>
+          <t>https://learn.microsoft.com/azure/aks/managed-aad#disable-local-accounts</t>
         </is>
       </c>
       <c r="I44" s="15" t="n"/>
@@ -2745,7 +2745,7 @@
       <c r="K44" s="22" t="n"/>
       <c r="L44" s="25" t="inlineStr">
         <is>
-          <t>f4dcf690-1b30-407d-abab-6f8aa780d3a3</t>
+          <t>b085b1f2-3119-4771-8c9a-bbf4411810ec</t>
         </is>
       </c>
       <c r="M44" s="25" t="n"/>
@@ -2766,13 +2766,13 @@
       </c>
       <c r="C45" s="21" t="inlineStr">
         <is>
-          <t>Disable AKS local accounts</t>
+          <t>Configure if required Just-in-time cluster access</t>
         </is>
       </c>
       <c r="D45" s="21" t="n"/>
       <c r="E45" s="21" t="inlineStr">
         <is>
-          <t>Medium</t>
+          <t>Low</t>
         </is>
       </c>
       <c r="F45" t="inlineStr">
@@ -2783,14 +2783,14 @@
       <c r="G45" s="21" t="n"/>
       <c r="H45" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/aks/managed-aad#disable-local-accounts</t>
+          <t>https://learn.microsoft.com/azure/aks/managed-aad#configure-just-in-time-cluster-access-with-azure-ad-and-aks</t>
         </is>
       </c>
       <c r="J45" s="22" t="n"/>
       <c r="K45" s="22" t="n"/>
       <c r="L45" s="25" t="inlineStr">
         <is>
-          <t>b085b1f2-3119-4771-8c9a-bbf4411810ec</t>
+          <t>36abb0db-c118-4f4c-9880-3f30f9a2deb6</t>
         </is>
       </c>
       <c r="M45" s="25" t="n"/>
@@ -2811,7 +2811,7 @@
       </c>
       <c r="C46" s="21" t="inlineStr">
         <is>
-          <t>Configure if required Just-in-time cluster access</t>
+          <t>Configure if required AAD conditional access for AKS</t>
         </is>
       </c>
       <c r="D46" s="21" t="n"/>
@@ -2828,7 +2828,7 @@
       <c r="G46" s="21" t="n"/>
       <c r="H46" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/aks/managed-aad#configure-just-in-time-cluster-access-with-azure-ad-and-aks</t>
+          <t>https://learn.microsoft.com/azure/aks/managed-aad#use-conditional-access-with-azure-ad-and-aks</t>
         </is>
       </c>
       <c r="I46" s="15" t="n"/>
@@ -2836,7 +2836,7 @@
       <c r="K46" s="22" t="n"/>
       <c r="L46" s="25" t="inlineStr">
         <is>
-          <t>36abb0db-c118-4f4c-9880-3f30f9a2deb6</t>
+          <t>c4d7f4c6-79bf-45d0-aa05-ce8fc717e150</t>
         </is>
       </c>
       <c r="M46" s="25" t="n"/>
@@ -2857,7 +2857,7 @@
       </c>
       <c r="C47" s="21" t="inlineStr">
         <is>
-          <t>Configure if required AAD conditional access for AKS</t>
+          <t xml:space="preserve">If required for Windows AKS workloads configure gMSA </t>
         </is>
       </c>
       <c r="D47" s="21" t="n"/>
@@ -2874,7 +2874,7 @@
       <c r="G47" s="21" t="n"/>
       <c r="H47" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/aks/managed-aad#use-conditional-access-with-azure-ad-and-aks</t>
+          <t>https://learn.microsoft.com/azure/aks/use-group-managed-service-accounts</t>
         </is>
       </c>
       <c r="I47" s="15" t="n"/>
@@ -2882,7 +2882,7 @@
       <c r="K47" s="22" t="n"/>
       <c r="L47" s="25" t="inlineStr">
         <is>
-          <t>c4d7f4c6-79bf-45d0-aa05-ce8fc717e150</t>
+          <t>e1123a7c-a333-4eb4-a120-4ee3f293c9f3</t>
         </is>
       </c>
       <c r="M47" s="25" t="n"/>
@@ -2903,13 +2903,13 @@
       </c>
       <c r="C48" s="21" t="inlineStr">
         <is>
-          <t xml:space="preserve">If required for Windows AKS workloads configure gMSA </t>
+          <t>For finer control consider using a managed Kubelet Identity</t>
         </is>
       </c>
       <c r="D48" s="21" t="n"/>
       <c r="E48" s="21" t="inlineStr">
         <is>
-          <t>Low</t>
+          <t>Medium</t>
         </is>
       </c>
       <c r="F48" t="inlineStr">
@@ -2920,14 +2920,14 @@
       <c r="G48" s="21" t="n"/>
       <c r="H48" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/aks/use-group-managed-service-accounts</t>
+          <t>https://learn.microsoft.com/azure/aks/use-managed-identity#use-a-pre-created-kubelet-managed-identity</t>
         </is>
       </c>
       <c r="J48" s="22" t="n"/>
       <c r="K48" s="22" t="n"/>
       <c r="L48" s="25" t="inlineStr">
         <is>
-          <t>e1123a7c-a333-4eb4-a120-4ee3f293c9f3</t>
+          <t>1f711a74-3672-470b-b8b8-a2148d640d79</t>
         </is>
       </c>
       <c r="M48" s="25" t="n"/>
@@ -2938,17 +2938,17 @@
     <row r="49" ht="16.5" customHeight="1">
       <c r="A49" s="21" t="inlineStr">
         <is>
-          <t>Identity and Access Management</t>
+          <t>Network Topology and Connectivity</t>
         </is>
       </c>
       <c r="B49" s="21" t="inlineStr">
         <is>
-          <t>Identity</t>
+          <t>Best practices</t>
         </is>
       </c>
       <c r="C49" s="21" t="inlineStr">
         <is>
-          <t>For finer control consider using a managed Kubelet Identity</t>
+          <t>If using AGIC, do not share an AppGW across clusters</t>
         </is>
       </c>
       <c r="D49" s="21" t="n"/>
@@ -2965,14 +2965,14 @@
       <c r="G49" s="21" t="n"/>
       <c r="H49" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/aks/use-managed-identity#use-a-pre-created-kubelet-managed-identity</t>
+          <t>https://azure.github.io/application-gateway-kubernetes-ingress/setup/install-existing/</t>
         </is>
       </c>
       <c r="J49" s="22" t="n"/>
       <c r="K49" s="22" t="n"/>
       <c r="L49" s="25" t="inlineStr">
         <is>
-          <t>1f711a74-3672-470b-b8b8-a2148d640d79</t>
+          <t>cbd8ac2a-aebc-4a2a-94da-1dbf3dc99248</t>
         </is>
       </c>
       <c r="M49" s="25" t="n"/>
@@ -2993,13 +2993,13 @@
       </c>
       <c r="C50" s="21" t="inlineStr">
         <is>
-          <t>If using AGIC, do not share an AppGW across clusters</t>
+          <t>Do not use AKS Application Routing Add-On</t>
         </is>
       </c>
       <c r="D50" s="21" t="n"/>
       <c r="E50" s="21" t="inlineStr">
         <is>
-          <t>Medium</t>
+          <t>High</t>
         </is>
       </c>
       <c r="F50" t="inlineStr">
@@ -3010,7 +3010,7 @@
       <c r="G50" s="21" t="n"/>
       <c r="H50" s="15" t="inlineStr">
         <is>
-          <t>https://azure.github.io/application-gateway-kubernetes-ingress/setup/install-existing/</t>
+          <t>https://learn.microsoft.com/azure/aks/http-application-routing</t>
         </is>
       </c>
       <c r="I50" s="15" t="n"/>
@@ -3018,7 +3018,7 @@
       <c r="K50" s="22" t="n"/>
       <c r="L50" s="25" t="inlineStr">
         <is>
-          <t>cbd8ac2a-aebc-4a2a-94da-1dbf3dc99248</t>
+          <t>8008ae7d-7e4b-4475-a6c8-bdbf59bce65d</t>
         </is>
       </c>
       <c r="M50" s="25" t="n"/>
@@ -3039,13 +3039,13 @@
       </c>
       <c r="C51" s="21" t="inlineStr">
         <is>
-          <t>Do not use AKS Application Routing Add-On</t>
+          <t>For Windows workloads use Accelerated Networking</t>
         </is>
       </c>
       <c r="D51" s="21" t="n"/>
       <c r="E51" s="21" t="inlineStr">
         <is>
-          <t>High</t>
+          <t>Medium</t>
         </is>
       </c>
       <c r="F51" t="inlineStr">
@@ -3056,7 +3056,7 @@
       <c r="G51" s="21" t="n"/>
       <c r="H51" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/aks/http-application-routing</t>
+          <t>https://learn.microsoft.com/azure/virtual-network/accelerated-networking-overview</t>
         </is>
       </c>
       <c r="I51" s="15" t="n"/>
@@ -3064,7 +3064,7 @@
       <c r="K51" s="22" t="n"/>
       <c r="L51" s="25" t="inlineStr">
         <is>
-          <t>8008ae7d-7e4b-4475-a6c8-bdbf59bce65d</t>
+          <t>7bacd7b9-c025-4a9d-a5d2-25d6bc5439d9</t>
         </is>
       </c>
       <c r="M51" s="25" t="n"/>
@@ -3085,13 +3085,13 @@
       </c>
       <c r="C52" s="21" t="inlineStr">
         <is>
-          <t>For Windows workloads use Accelerated Networking</t>
+          <t>Use the standard ALB (as opposed to the basic one)</t>
         </is>
       </c>
       <c r="D52" s="21" t="n"/>
       <c r="E52" s="21" t="inlineStr">
         <is>
-          <t>Medium</t>
+          <t>High</t>
         </is>
       </c>
       <c r="F52" t="inlineStr">
@@ -3102,7 +3102,7 @@
       <c r="G52" s="21" t="n"/>
       <c r="H52" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/virtual-network/accelerated-networking-overview</t>
+          <t>https://learn.microsoft.com/azure/aks/load-balancer-standard</t>
         </is>
       </c>
       <c r="I52" s="15" t="n"/>
@@ -3110,7 +3110,7 @@
       <c r="K52" s="22" t="n"/>
       <c r="L52" s="25" t="inlineStr">
         <is>
-          <t>7bacd7b9-c025-4a9d-a5d2-25d6bc5439d9</t>
+          <t>ba7da7be-9952-4914-a384-5d997cb39132</t>
         </is>
       </c>
       <c r="M52" s="25" t="n"/>
@@ -3131,13 +3131,13 @@
       </c>
       <c r="C53" s="21" t="inlineStr">
         <is>
-          <t>Use the standard ALB (as opposed to the basic one)</t>
+          <t>If using Azure CNI, consider using different Subnets for NodePools</t>
         </is>
       </c>
       <c r="D53" s="21" t="n"/>
       <c r="E53" s="21" t="inlineStr">
         <is>
-          <t>High</t>
+          <t>Medium</t>
         </is>
       </c>
       <c r="F53" t="inlineStr">
@@ -3148,14 +3148,14 @@
       <c r="G53" s="21" t="n"/>
       <c r="H53" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/aks/load-balancer-standard</t>
+          <t>https://learn.microsoft.com/azure/aks/use-multiple-node-pools#add-a-node-pool-with-a-unique-subnet</t>
         </is>
       </c>
       <c r="J53" s="22" t="n"/>
       <c r="K53" s="22" t="n"/>
       <c r="L53" s="25" t="inlineStr">
         <is>
-          <t>ba7da7be-9952-4914-a384-5d997cb39132</t>
+          <t>22fbe8d6-9b40-47ef-9011-25bb1a555a6b</t>
         </is>
       </c>
       <c r="M53" s="25" t="n"/>
@@ -3171,12 +3171,12 @@
       </c>
       <c r="B54" s="21" t="inlineStr">
         <is>
-          <t>Best practices</t>
+          <t>Cost</t>
         </is>
       </c>
       <c r="C54" s="21" t="inlineStr">
         <is>
-          <t>If using Azure CNI, consider using different Subnets for NodePools</t>
+          <t>Use Private Endpoints (preferred) or Virtual Network Service Endpoints to access PaaS services from the cluster</t>
         </is>
       </c>
       <c r="D54" s="21" t="n"/>
@@ -3193,7 +3193,7 @@
       <c r="G54" s="21" t="n"/>
       <c r="H54" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/aks/use-multiple-node-pools#add-a-node-pool-with-a-unique-subnet</t>
+          <t>https://learn.microsoft.com/azure/private-link/private-link-overview</t>
         </is>
       </c>
       <c r="I54" s="15" t="n"/>
@@ -3201,7 +3201,7 @@
       <c r="K54" s="22" t="n"/>
       <c r="L54" s="25" t="inlineStr">
         <is>
-          <t>22fbe8d6-9b40-47ef-9011-25bb1a555a6b</t>
+          <t>c3c39c98-6bb2-4c12-859a-114b5e3df584</t>
         </is>
       </c>
       <c r="M54" s="25" t="n"/>
@@ -3217,12 +3217,12 @@
       </c>
       <c r="B55" s="21" t="inlineStr">
         <is>
-          <t>Cost</t>
+          <t>HA</t>
         </is>
       </c>
       <c r="C55" s="21" t="inlineStr">
         <is>
-          <t>Use Private Endpoints (preferred) or Virtual Network Service Endpoints to access PaaS services from the cluster</t>
+          <t>If hybrid connectivity is required, use 2xER or ER+VPN for better availability</t>
         </is>
       </c>
       <c r="D55" s="21" t="n"/>
@@ -3239,14 +3239,14 @@
       <c r="G55" s="21" t="n"/>
       <c r="H55" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/private-link/private-link-overview</t>
+          <t>https://learn.microsoft.com/azure/expressroute/designing-for-disaster-recovery-with-expressroute-privatepeering</t>
         </is>
       </c>
       <c r="J55" s="22" t="n"/>
       <c r="K55" s="22" t="n"/>
       <c r="L55" s="25" t="inlineStr">
         <is>
-          <t>c3c39c98-6bb2-4c12-859a-114b5e3df584</t>
+          <t>e8a03f97-8794-468d-96a7-86d60f96c97b</t>
         </is>
       </c>
       <c r="M55" s="25" t="n"/>
@@ -3262,18 +3262,18 @@
       </c>
       <c r="B56" s="21" t="inlineStr">
         <is>
-          <t>HA</t>
+          <t>IPAM</t>
         </is>
       </c>
       <c r="C56" s="21" t="inlineStr">
         <is>
-          <t>If hybrid connectivity is required, use 2xER or ER+VPN for better availability</t>
+          <t>Choose the best CNI network plugin for your requirements (Azure CNI recommended)</t>
         </is>
       </c>
       <c r="D56" s="21" t="n"/>
       <c r="E56" s="21" t="inlineStr">
         <is>
-          <t>Medium</t>
+          <t>High</t>
         </is>
       </c>
       <c r="F56" t="inlineStr">
@@ -3284,14 +3284,14 @@
       <c r="G56" s="21" t="n"/>
       <c r="H56" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/expressroute/designing-for-disaster-recovery-with-expressroute-privatepeering</t>
+          <t>https://learn.microsoft.com/azure/aks/operator-best-practices-network</t>
         </is>
       </c>
       <c r="J56" s="22" t="n"/>
       <c r="K56" s="22" t="n"/>
       <c r="L56" s="25" t="inlineStr">
         <is>
-          <t>e8a03f97-8794-468d-96a7-86d60f96c97b</t>
+          <t>a0f61565-9de5-458f-a372-49c831112dbd</t>
         </is>
       </c>
       <c r="M56" s="25" t="n"/>
@@ -3312,7 +3312,7 @@
       </c>
       <c r="C57" s="21" t="inlineStr">
         <is>
-          <t>Choose the best CNI network plugin for your requirements (Azure CNI recommended)</t>
+          <t>If using Azure CNI, size your subnet accordingly considering the maximum number of pods per node</t>
         </is>
       </c>
       <c r="D57" s="21" t="n"/>
@@ -3329,14 +3329,14 @@
       <c r="G57" s="21" t="n"/>
       <c r="H57" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/aks/operator-best-practices-network</t>
+          <t>https://learn.microsoft.com/azure/aks/configure-azure-cni</t>
         </is>
       </c>
       <c r="J57" s="22" t="n"/>
       <c r="K57" s="22" t="n"/>
       <c r="L57" s="25" t="inlineStr">
         <is>
-          <t>a0f61565-9de5-458f-a372-49c831112dbd</t>
+          <t>7faf12e7-0943-4f63-8472-2da29c2b1cd6</t>
         </is>
       </c>
       <c r="M57" s="25" t="n"/>
@@ -3357,7 +3357,7 @@
       </c>
       <c r="C58" s="21" t="inlineStr">
         <is>
-          <t>If using Azure CNI, size your subnet accordingly considering the maximum number of pods per node</t>
+          <t>If using Azure CNI, check the maximum pods/node (default 30)</t>
         </is>
       </c>
       <c r="D58" s="21" t="n"/>
@@ -3381,7 +3381,7 @@
       <c r="K58" s="22" t="n"/>
       <c r="L58" s="25" t="inlineStr">
         <is>
-          <t>7faf12e7-0943-4f63-8472-2da29c2b1cd6</t>
+          <t>22f54b29-bade-43aa-b1e8-c38ec9366673</t>
         </is>
       </c>
       <c r="M58" s="25" t="n"/>
@@ -3402,13 +3402,17 @@
       </c>
       <c r="C59" s="21" t="inlineStr">
         <is>
-          <t>If using Azure CNI, check the maximum pods/node (default 30)</t>
-        </is>
-      </c>
-      <c r="D59" s="21" t="n"/>
+          <t>If using private-IP LoadBalancer services, use a dedicated subnet (not the AKS subnet)</t>
+        </is>
+      </c>
+      <c r="D59" s="21" t="inlineStr">
+        <is>
+          <t>For internal apps organizations often open the whole AKS subnet in their firewalls. This opens network access to the nodes too, and potentially to the pods as well (if using Azure CNI). If LoadBalancer IPs are in a different subnet, only this one needs to be available to the app clients. Another reason is that if the IP addresses in the AKS subnet are a scarce resource, consuming its IP addresses for services will reduce the maximum scalability of the cluster .</t>
+        </is>
+      </c>
       <c r="E59" s="21" t="inlineStr">
         <is>
-          <t>High</t>
+          <t>Low</t>
         </is>
       </c>
       <c r="F59" t="inlineStr">
@@ -3419,14 +3423,14 @@
       <c r="G59" s="21" t="n"/>
       <c r="H59" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/aks/configure-azure-cni</t>
+          <t>https://learn.microsoft.com/azure/aks/internal-lb</t>
         </is>
       </c>
       <c r="J59" s="22" t="n"/>
       <c r="K59" s="22" t="n"/>
       <c r="L59" s="25" t="inlineStr">
         <is>
-          <t>22f54b29-bade-43aa-b1e8-c38ec9366673</t>
+          <t>13c00567-4b1e-4945-a459-c373e7ed6162</t>
         </is>
       </c>
       <c r="M59" s="25" t="n"/>
@@ -3447,17 +3451,13 @@
       </c>
       <c r="C60" s="21" t="inlineStr">
         <is>
-          <t>If using private-IP LoadBalancer services, use a dedicated subnet (not the AKS subnet)</t>
-        </is>
-      </c>
-      <c r="D60" s="21" t="inlineStr">
-        <is>
-          <t>For internal apps organizations often open the whole AKS subnet in their firewalls. This opens network access to the nodes too, and potentially to the pods as well (if using Azure CNI). If LoadBalancer IPs are in a different subnet, only this one needs to be available to the app clients. Another reason is that if the IP addresses in the AKS subnet are a scarce resource, consuming its IP addresses for services will reduce the maximum scalability of the cluster .</t>
-        </is>
-      </c>
+          <t>Size the service IP address range accordingly (it is going to limit the cluster scalability)</t>
+        </is>
+      </c>
+      <c r="D60" s="21" t="n"/>
       <c r="E60" s="21" t="inlineStr">
         <is>
-          <t>Low</t>
+          <t>High</t>
         </is>
       </c>
       <c r="F60" t="inlineStr">
@@ -3468,14 +3468,14 @@
       <c r="G60" s="21" t="n"/>
       <c r="H60" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/aks/internal-lb</t>
+          <t>https://learn.microsoft.com/azure/aks/configure-azure-cni</t>
         </is>
       </c>
       <c r="J60" s="22" t="n"/>
       <c r="K60" s="22" t="n"/>
       <c r="L60" s="25" t="inlineStr">
         <is>
-          <t>13c00567-4b1e-4945-a459-c373e7ed6162</t>
+          <t>43f63047-22d9-429c-8b1c-d622f54b29ba</t>
         </is>
       </c>
       <c r="M60" s="25" t="n"/>
@@ -3491,18 +3491,18 @@
       </c>
       <c r="B61" s="21" t="inlineStr">
         <is>
-          <t>IPAM</t>
+          <t>Operations</t>
         </is>
       </c>
       <c r="C61" s="21" t="inlineStr">
         <is>
-          <t>Size the service IP address range accordingly (it is going to limit the cluster scalability)</t>
+          <t>If required add your own CNI plugin</t>
         </is>
       </c>
       <c r="D61" s="21" t="n"/>
       <c r="E61" s="21" t="inlineStr">
         <is>
-          <t>High</t>
+          <t>Low</t>
         </is>
       </c>
       <c r="F61" t="inlineStr">
@@ -3513,14 +3513,14 @@
       <c r="G61" s="21" t="n"/>
       <c r="H61" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/aks/configure-azure-cni</t>
+          <t>https://learn.microsoft.com/azure/aks/use-byo-cni</t>
         </is>
       </c>
       <c r="J61" s="22" t="n"/>
       <c r="K61" s="22" t="n"/>
       <c r="L61" s="25" t="inlineStr">
         <is>
-          <t>43f63047-22d9-429c-8b1c-d622f54b29ba</t>
+          <t>57bf217f-6dc8-481c-81e2-785773e9c00f</t>
         </is>
       </c>
       <c r="M61" s="25" t="n"/>
@@ -3541,7 +3541,7 @@
       </c>
       <c r="C62" s="21" t="inlineStr">
         <is>
-          <t>If required add your own CNI plugin</t>
+          <t>If required configure Public IP per node in AKS</t>
         </is>
       </c>
       <c r="D62" s="21" t="n"/>
@@ -3558,14 +3558,14 @@
       <c r="G62" s="21" t="n"/>
       <c r="H62" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/aks/use-byo-cni</t>
+          <t>https://learn.microsoft.com/azure/aks/use-multiple-node-pools#assign-a-public-ip-per-node-for-your-node-pools</t>
         </is>
       </c>
       <c r="J62" s="22" t="n"/>
       <c r="K62" s="22" t="n"/>
       <c r="L62" s="25" t="inlineStr">
         <is>
-          <t>57bf217f-6dc8-481c-81e2-785773e9c00f</t>
+          <t>4b3bb365-9458-44d9-9ed1-5c8f52890364</t>
         </is>
       </c>
       <c r="M62" s="25" t="n"/>
@@ -3581,18 +3581,18 @@
       </c>
       <c r="B63" s="21" t="inlineStr">
         <is>
-          <t>Operations</t>
+          <t>Scalability</t>
         </is>
       </c>
       <c r="C63" s="21" t="inlineStr">
         <is>
-          <t>If required configure Public IP per node in AKS</t>
+          <t>Use an ingress controller to expose web-based apps instead of exposing them with LoadBalancer-type services</t>
         </is>
       </c>
       <c r="D63" s="21" t="n"/>
       <c r="E63" s="21" t="inlineStr">
         <is>
-          <t>Low</t>
+          <t>Medium</t>
         </is>
       </c>
       <c r="F63" t="inlineStr">
@@ -3603,7 +3603,7 @@
       <c r="G63" s="21" t="n"/>
       <c r="H63" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/aks/use-multiple-node-pools#assign-a-public-ip-per-node-for-your-node-pools</t>
+          <t>https://learn.microsoft.com/azure/aks/concepts-network</t>
         </is>
       </c>
       <c r="I63" s="15" t="n"/>
@@ -3611,7 +3611,7 @@
       <c r="K63" s="22" t="n"/>
       <c r="L63" s="25" t="inlineStr">
         <is>
-          <t>4b3bb365-9458-44d9-9ed1-5c8f52890364</t>
+          <t>b3808b9f-a1cf-4204-ad01-3a923ce474db</t>
         </is>
       </c>
       <c r="M63" s="25" t="n"/>
@@ -3632,13 +3632,13 @@
       </c>
       <c r="C64" s="21" t="inlineStr">
         <is>
-          <t>Use an ingress controller to expose web-based apps instead of exposing them with LoadBalancer-type services</t>
+          <t>Use Azure NAT Gateway as outboundType for scaling egress traffic</t>
         </is>
       </c>
       <c r="D64" s="21" t="n"/>
       <c r="E64" s="21" t="inlineStr">
         <is>
-          <t>Medium</t>
+          <t>Low</t>
         </is>
       </c>
       <c r="F64" t="inlineStr">
@@ -3649,7 +3649,7 @@
       <c r="G64" s="21" t="n"/>
       <c r="H64" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/aks/concepts-network</t>
+          <t>https://learn.microsoft.com/azure/aks/nat-gateway</t>
         </is>
       </c>
       <c r="I64" s="15" t="n"/>
@@ -3657,7 +3657,7 @@
       <c r="K64" s="22" t="n"/>
       <c r="L64" s="25" t="inlineStr">
         <is>
-          <t>b3808b9f-a1cf-4204-ad01-3a923ce474db</t>
+          <t>ccb534e7-416e-4a1d-8e93-533b53199085</t>
         </is>
       </c>
       <c r="M64" s="25" t="n"/>
@@ -3678,13 +3678,13 @@
       </c>
       <c r="C65" s="21" t="inlineStr">
         <is>
-          <t>Use Azure NAT Gateway as outboundType for scaling egress traffic</t>
+          <t>Use Dynamic allocations of IPs in order to avoid Azure CNI IP exhaustion</t>
         </is>
       </c>
       <c r="D65" s="21" t="n"/>
       <c r="E65" s="21" t="inlineStr">
         <is>
-          <t>Low</t>
+          <t>Medium</t>
         </is>
       </c>
       <c r="F65" t="inlineStr">
@@ -3695,7 +3695,7 @@
       <c r="G65" s="21" t="n"/>
       <c r="H65" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/aks/nat-gateway</t>
+          <t>https://learn.microsoft.com/azure/aks/configure-azure-cni#dynamic-allocation-of-ips-and-enhanced-subnet-support</t>
         </is>
       </c>
       <c r="I65" s="15" t="n"/>
@@ -3703,7 +3703,7 @@
       <c r="K65" s="22" t="n"/>
       <c r="L65" s="25" t="inlineStr">
         <is>
-          <t>ccb534e7-416e-4a1d-8e93-533b53199085</t>
+          <t>8ee9a69a-1b58-4b1e-9c61-476e110a160b</t>
         </is>
       </c>
       <c r="M65" s="25" t="n"/>
@@ -3719,18 +3719,18 @@
       </c>
       <c r="B66" s="21" t="inlineStr">
         <is>
-          <t>Scalability</t>
+          <t>Security</t>
         </is>
       </c>
       <c r="C66" s="21" t="inlineStr">
         <is>
-          <t>Use Dynamic allocations of IPs in order to avoid Azure CNI IP exhaustion</t>
+          <t>Filter egress traffic with AzFW/NVA if your security requirements mandate it</t>
         </is>
       </c>
       <c r="D66" s="21" t="n"/>
       <c r="E66" s="21" t="inlineStr">
         <is>
-          <t>Medium</t>
+          <t>High</t>
         </is>
       </c>
       <c r="F66" t="inlineStr">
@@ -3741,14 +3741,14 @@
       <c r="G66" s="21" t="n"/>
       <c r="H66" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/aks/configure-azure-cni#dynamic-allocation-of-ips-and-enhanced-subnet-support</t>
+          <t>https://learn.microsoft.com/azure/aks/limit-egress-traffic</t>
         </is>
       </c>
       <c r="J66" s="22" t="n"/>
       <c r="K66" s="22" t="n"/>
       <c r="L66" s="25" t="inlineStr">
         <is>
-          <t>8ee9a69a-1b58-4b1e-9c61-476e110a160b</t>
+          <t>3b365a91-7ecb-4e48-bbe5-4cd7df2e8bba</t>
         </is>
       </c>
       <c r="M66" s="25" t="n"/>
@@ -3769,13 +3769,13 @@
       </c>
       <c r="C67" s="21" t="inlineStr">
         <is>
-          <t>Filter egress traffic with AzFW/NVA if your security requirements mandate it</t>
+          <t>If using a public API endpoint, restrict the IP addresses that can access it</t>
         </is>
       </c>
       <c r="D67" s="21" t="n"/>
       <c r="E67" s="21" t="inlineStr">
         <is>
-          <t>High</t>
+          <t>Medium</t>
         </is>
       </c>
       <c r="F67" t="inlineStr">
@@ -3786,7 +3786,7 @@
       <c r="G67" s="21" t="n"/>
       <c r="H67" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/aks/limit-egress-traffic</t>
+          <t>https://learn.microsoft.com/azure/aks/api-server-authorized-ip-ranges</t>
         </is>
       </c>
       <c r="I67" s="15" t="n"/>
@@ -3794,7 +3794,7 @@
       <c r="K67" s="22" t="n"/>
       <c r="L67" s="25" t="inlineStr">
         <is>
-          <t>3b365a91-7ecb-4e48-bbe5-4cd7df2e8bba</t>
+          <t>c4581559-bb91-463e-a908-aed8c44ce3b2</t>
         </is>
       </c>
       <c r="M67" s="25" t="n"/>
@@ -3815,13 +3815,13 @@
       </c>
       <c r="C68" s="21" t="inlineStr">
         <is>
-          <t>If using a public API endpoint, restrict the IP addresses that can access it</t>
+          <t>Use private clusters if your requirements mandate it</t>
         </is>
       </c>
       <c r="D68" s="21" t="n"/>
       <c r="E68" s="21" t="inlineStr">
         <is>
-          <t>Medium</t>
+          <t>High</t>
         </is>
       </c>
       <c r="F68" t="inlineStr">
@@ -3832,7 +3832,7 @@
       <c r="G68" s="21" t="n"/>
       <c r="H68" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/aks/api-server-authorized-ip-ranges</t>
+          <t>https://learn.microsoft.com/azure/aks/private-clusters</t>
         </is>
       </c>
       <c r="I68" s="15" t="n"/>
@@ -3840,7 +3840,7 @@
       <c r="K68" s="22" t="n"/>
       <c r="L68" s="25" t="inlineStr">
         <is>
-          <t>c4581559-bb91-463e-a908-aed8c44ce3b2</t>
+          <t>ecccd979-3b6b-4cda-9b50-eb2eb03dda6d</t>
         </is>
       </c>
       <c r="M68" s="25" t="n"/>
@@ -3861,13 +3861,13 @@
       </c>
       <c r="C69" s="21" t="inlineStr">
         <is>
-          <t>Use private clusters if your requirements mandate it</t>
+          <t xml:space="preserve">For Windows 2019 and 2022 AKS nodes Calico Network Policies can be used </t>
         </is>
       </c>
       <c r="D69" s="21" t="n"/>
       <c r="E69" s="21" t="inlineStr">
         <is>
-          <t>High</t>
+          <t>Medium</t>
         </is>
       </c>
       <c r="F69" t="inlineStr">
@@ -3878,7 +3878,7 @@
       <c r="G69" s="21" t="n"/>
       <c r="H69" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/aks/private-clusters</t>
+          <t>https://learn.microsoft.com/azure/aks/use-network-policies</t>
         </is>
       </c>
       <c r="I69" s="15" t="n"/>
@@ -3886,7 +3886,7 @@
       <c r="K69" s="22" t="n"/>
       <c r="L69" s="25" t="inlineStr">
         <is>
-          <t>ecccd979-3b6b-4cda-9b50-eb2eb03dda6d</t>
+          <t>ce7f2a7c-297c-47c6-adea-a6ff838db665</t>
         </is>
       </c>
       <c r="M69" s="25" t="n"/>
@@ -3907,13 +3907,13 @@
       </c>
       <c r="C70" s="21" t="inlineStr">
         <is>
-          <t xml:space="preserve">For Windows 2019 and 2022 AKS nodes Calico Network Policies can be used </t>
+          <t>Enable a Kubernetes Network Policy option (Calico/Azure)</t>
         </is>
       </c>
       <c r="D70" s="21" t="n"/>
       <c r="E70" s="21" t="inlineStr">
         <is>
-          <t>Medium</t>
+          <t>High</t>
         </is>
       </c>
       <c r="F70" t="inlineStr">
@@ -3932,7 +3932,7 @@
       <c r="K70" s="23" t="n"/>
       <c r="L70" s="25" t="inlineStr">
         <is>
-          <t>ce7f2a7c-297c-47c6-adea-a6ff838db665</t>
+          <t>58d7c892-ddb1-407d-9769-ae669ca48e4a</t>
         </is>
       </c>
       <c r="M70" s="25" t="n"/>
@@ -3953,7 +3953,7 @@
       </c>
       <c r="C71" s="21" t="inlineStr">
         <is>
-          <t>Enable a Kubernetes Network Policy option (Calico/Azure)</t>
+          <t>Use Kubernetes network policies to increase intra-cluster security</t>
         </is>
       </c>
       <c r="D71" s="21" t="n"/>
@@ -3970,7 +3970,7 @@
       <c r="G71" s="21" t="n"/>
       <c r="H71" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/aks/use-network-policies</t>
+          <t>https://learn.microsoft.com/azure/aks/operator-best-practices-network</t>
         </is>
       </c>
       <c r="I71" s="15" t="n"/>
@@ -3978,7 +3978,7 @@
       <c r="K71" s="22" t="n"/>
       <c r="L71" s="25" t="inlineStr">
         <is>
-          <t>58d7c892-ddb1-407d-9769-ae669ca48e4a</t>
+          <t>85e2223e-ce8b-4b12-907c-a5f16f158e3e</t>
         </is>
       </c>
       <c r="M71" s="25" t="n"/>
@@ -3999,7 +3999,7 @@
       </c>
       <c r="C72" s="21" t="inlineStr">
         <is>
-          <t>Use Kubernetes network policies to increase intra-cluster security</t>
+          <t>Use a WAF for web workloads (UIs or APIs)</t>
         </is>
       </c>
       <c r="D72" s="21" t="n"/>
@@ -4024,7 +4024,7 @@
       <c r="K72" s="22" t="n"/>
       <c r="L72" s="25" t="inlineStr">
         <is>
-          <t>85e2223e-ce8b-4b12-907c-a5f16f158e3e</t>
+          <t>a3a92c2d-e7e2-4165-a3a8-7af4a7a1f893</t>
         </is>
       </c>
       <c r="M72" s="25" t="n"/>
@@ -4045,13 +4045,13 @@
       </c>
       <c r="C73" s="21" t="inlineStr">
         <is>
-          <t>Use a WAF for web workloads (UIs or APIs)</t>
+          <t>Use DDoS Standard in the AKS Virtual Network</t>
         </is>
       </c>
       <c r="D73" s="21" t="n"/>
       <c r="E73" s="21" t="inlineStr">
         <is>
-          <t>High</t>
+          <t>Medium</t>
         </is>
       </c>
       <c r="F73" t="inlineStr">
@@ -4062,7 +4062,7 @@
       <c r="G73" s="21" t="n"/>
       <c r="H73" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/aks/operator-best-practices-network</t>
+          <t>https://learn.microsoft.com/azure/virtual-network/ddos-protection-overview</t>
         </is>
       </c>
       <c r="I73" s="15" t="n"/>
@@ -4070,7 +4070,7 @@
       <c r="K73" s="22" t="n"/>
       <c r="L73" s="25" t="inlineStr">
         <is>
-          <t>a3a92c2d-e7e2-4165-a3a8-7af4a7a1f893</t>
+          <t>9bda4776-8f24-4c11-9775-c2ea55b46a94</t>
         </is>
       </c>
       <c r="M73" s="25" t="n"/>
@@ -4091,13 +4091,13 @@
       </c>
       <c r="C74" s="21" t="inlineStr">
         <is>
-          <t>Use DDoS Standard in the AKS Virtual Network</t>
+          <t>If required add company HTTP Proxy</t>
         </is>
       </c>
       <c r="D74" s="21" t="n"/>
       <c r="E74" s="21" t="inlineStr">
         <is>
-          <t>Medium</t>
+          <t>Low</t>
         </is>
       </c>
       <c r="F74" t="inlineStr">
@@ -4108,7 +4108,7 @@
       <c r="G74" s="21" t="n"/>
       <c r="H74" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/virtual-network/ddos-protection-overview</t>
+          <t>https://learn.microsoft.com/azure/aks/http-proxy</t>
         </is>
       </c>
       <c r="I74" s="15" t="n"/>
@@ -4116,7 +4116,7 @@
       <c r="K74" s="22" t="n"/>
       <c r="L74" s="25" t="inlineStr">
         <is>
-          <t>9bda4776-8f24-4c11-9775-c2ea55b46a94</t>
+          <t>6c46b91a-1107-4485-ad66-3183e2a8c266</t>
         </is>
       </c>
       <c r="M74" s="25" t="n"/>
@@ -4137,13 +4137,13 @@
       </c>
       <c r="C75" s="21" t="inlineStr">
         <is>
-          <t>If required add company HTTP Proxy</t>
+          <t>Consider using a service mesh for advanced microservice communication management</t>
         </is>
       </c>
       <c r="D75" s="21" t="n"/>
       <c r="E75" s="21" t="inlineStr">
         <is>
-          <t>Low</t>
+          <t>Medium</t>
         </is>
       </c>
       <c r="F75" t="inlineStr">
@@ -4154,7 +4154,7 @@
       <c r="G75" s="21" t="n"/>
       <c r="H75" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/aks/http-proxy</t>
+          <t>https://learn.microsoft.com/azure/aks/servicemesh-about</t>
         </is>
       </c>
       <c r="I75" s="15" t="n"/>
@@ -4162,7 +4162,7 @@
       <c r="K75" s="23" t="n"/>
       <c r="L75" s="25" t="inlineStr">
         <is>
-          <t>6c46b91a-1107-4485-ad66-3183e2a8c266</t>
+          <t>e9855d04-c3c3-49c9-a6bb-2c12159a114b</t>
         </is>
       </c>
       <c r="M75" s="25" t="n"/>
@@ -4173,23 +4173,23 @@
     <row r="76" ht="16.5" customHeight="1">
       <c r="A76" s="21" t="inlineStr">
         <is>
-          <t>Network Topology and Connectivity</t>
+          <t>Operations</t>
         </is>
       </c>
       <c r="B76" s="21" t="inlineStr">
         <is>
-          <t>Security</t>
+          <t>Alerting</t>
         </is>
       </c>
       <c r="C76" s="21" t="inlineStr">
         <is>
-          <t>Consider using a service mesh for advanced microservice communication management</t>
+          <t>Configure alerts on the most critical metrics (see Container Insights for recommendations)</t>
         </is>
       </c>
       <c r="D76" s="21" t="n"/>
       <c r="E76" s="21" t="inlineStr">
         <is>
-          <t>Medium</t>
+          <t>High</t>
         </is>
       </c>
       <c r="F76" t="inlineStr">
@@ -4200,7 +4200,7 @@
       <c r="G76" s="21" t="n"/>
       <c r="H76" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/aks/servicemesh-about</t>
+          <t>https://learn.microsoft.com/azure/azure-monitor/insights/container-insights-metric-alerts</t>
         </is>
       </c>
       <c r="I76" s="15" t="n"/>
@@ -4208,7 +4208,7 @@
       <c r="K76" s="22" t="n"/>
       <c r="L76" s="25" t="inlineStr">
         <is>
-          <t>e9855d04-c3c3-49c9-a6bb-2c12159a114b</t>
+          <t>67f7a9ed-5b31-4f38-a3f3-9812b2463cff</t>
         </is>
       </c>
       <c r="M76" s="25" t="n"/>
@@ -4224,18 +4224,18 @@
       </c>
       <c r="B77" s="21" t="inlineStr">
         <is>
-          <t>Alerting</t>
+          <t>Compliance</t>
         </is>
       </c>
       <c r="C77" s="21" t="inlineStr">
         <is>
-          <t>Configure alerts on the most critical metrics (see Container Insights for recommendations)</t>
+          <t>Check regularly Azure Advisor for recommendations on your cluster</t>
         </is>
       </c>
       <c r="D77" s="21" t="n"/>
       <c r="E77" s="21" t="inlineStr">
         <is>
-          <t>High</t>
+          <t>Low</t>
         </is>
       </c>
       <c r="F77" t="inlineStr">
@@ -4246,7 +4246,7 @@
       <c r="G77" s="21" t="n"/>
       <c r="H77" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/azure-monitor/insights/container-insights-metric-alerts</t>
+          <t>https://learn.microsoft.com/azure/advisor/advisor-get-started</t>
         </is>
       </c>
       <c r="I77" s="15" t="n"/>
@@ -4254,7 +4254,7 @@
       <c r="K77" s="23" t="n"/>
       <c r="L77" s="25" t="inlineStr">
         <is>
-          <t>67f7a9ed-5b31-4f38-a3f3-9812b2463cff</t>
+          <t>337453a3-cc63-4963-9a65-22ac19e80696</t>
         </is>
       </c>
       <c r="M77" s="25" t="n"/>
@@ -4275,7 +4275,7 @@
       </c>
       <c r="C78" s="21" t="inlineStr">
         <is>
-          <t>Check regularly Azure Advisor for recommendations on your cluster</t>
+          <t>Enable AKS auto-certificate rotation</t>
         </is>
       </c>
       <c r="D78" s="21" t="n"/>
@@ -4292,7 +4292,7 @@
       <c r="G78" s="21" t="n"/>
       <c r="H78" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/advisor/advisor-get-started</t>
+          <t>https://learn.microsoft.com/azure/aks/certificate-rotation</t>
         </is>
       </c>
       <c r="I78" s="15" t="n"/>
@@ -4300,7 +4300,7 @@
       <c r="K78" s="22" t="n"/>
       <c r="L78" s="25" t="inlineStr">
         <is>
-          <t>337453a3-cc63-4963-9a65-22ac19e80696</t>
+          <t>3aa70560-e7e7-4968-be3d-628af35b2ced</t>
         </is>
       </c>
       <c r="M78" s="25" t="n"/>
@@ -4321,13 +4321,13 @@
       </c>
       <c r="C79" s="21" t="inlineStr">
         <is>
-          <t>Develop your YAML manifests with intelligent text editors such as vscode+kubeadvisor</t>
+          <t>Have a regular process to upgrade your kubernetes version periodically (quarterly, for example), or use the AKS autoupgrade feature</t>
         </is>
       </c>
       <c r="D79" s="21" t="n"/>
       <c r="E79" s="21" t="inlineStr">
         <is>
-          <t>Low</t>
+          <t>High</t>
         </is>
       </c>
       <c r="F79" t="inlineStr">
@@ -4338,7 +4338,7 @@
       <c r="G79" s="21" t="n"/>
       <c r="H79" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/aks/operator-best-practices-scheduler</t>
+          <t>https://learn.microsoft.com/azure/aks/supported-kubernetes-versions</t>
         </is>
       </c>
       <c r="I79" s="15" t="n"/>
@@ -4346,7 +4346,7 @@
       <c r="K79" s="22" t="n"/>
       <c r="L79" s="25" t="inlineStr">
         <is>
-          <t>5388e9de-d167-4dd1-a2b0-ac241b999a64</t>
+          <t>e189c599-df0d-45a7-9dd4-ce32c1881370</t>
         </is>
       </c>
       <c r="M79" s="25" t="n"/>
@@ -4367,13 +4367,13 @@
       </c>
       <c r="C80" s="21" t="inlineStr">
         <is>
-          <t>Enable AKS auto-certificate rotation</t>
+          <t>Use kured for Linux node upgrades in case you are not using node-image upgrade</t>
         </is>
       </c>
       <c r="D80" s="21" t="n"/>
       <c r="E80" s="21" t="inlineStr">
         <is>
-          <t>Low</t>
+          <t>High</t>
         </is>
       </c>
       <c r="F80" t="inlineStr">
@@ -4384,7 +4384,7 @@
       <c r="G80" s="21" t="n"/>
       <c r="H80" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/aks/certificate-rotation</t>
+          <t>https://learn.microsoft.com/azure/aks/node-updates-kured</t>
         </is>
       </c>
       <c r="I80" s="15" t="n"/>
@@ -4392,7 +4392,7 @@
       <c r="K80" s="22" t="n"/>
       <c r="L80" s="25" t="inlineStr">
         <is>
-          <t>3aa70560-e7e7-4968-be3d-628af35b2ced</t>
+          <t>6f7c4c0d-4e51-4464-ad24-57ed67138b82</t>
         </is>
       </c>
       <c r="M80" s="25" t="n"/>
@@ -4413,7 +4413,7 @@
       </c>
       <c r="C81" s="21" t="inlineStr">
         <is>
-          <t>Have a regular process to upgrade your kubernetes version periodically (quarterly, for example), or use the AKS autoupgrade feature</t>
+          <t>Have a regular process to upgrade the cluster node images periodically (weekly, for example)</t>
         </is>
       </c>
       <c r="D81" s="21" t="n"/>
@@ -4430,7 +4430,7 @@
       <c r="G81" s="21" t="n"/>
       <c r="H81" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/aks/supported-kubernetes-versions</t>
+          <t>https://learn.microsoft.com/azure/aks/node-image-upgrade</t>
         </is>
       </c>
       <c r="I81" s="15" t="n"/>
@@ -4438,7 +4438,7 @@
       <c r="K81" s="22" t="n"/>
       <c r="L81" s="25" t="inlineStr">
         <is>
-          <t>e189c599-df0d-45a7-9dd4-ce32c1881370</t>
+          <t>139c9580-ade3-426a-ba09-cf157d9f6477</t>
         </is>
       </c>
       <c r="M81" s="25" t="n"/>
@@ -4459,13 +4459,13 @@
       </c>
       <c r="C82" s="21" t="inlineStr">
         <is>
-          <t>Use kured for Linux node upgrades in case you are not using node-image upgrade</t>
+          <t>Consider gitops to deploy applications or cluster configuration to multiple clusters</t>
         </is>
       </c>
       <c r="D82" s="21" t="n"/>
       <c r="E82" s="21" t="inlineStr">
         <is>
-          <t>High</t>
+          <t>Low</t>
         </is>
       </c>
       <c r="F82" t="inlineStr">
@@ -4476,7 +4476,7 @@
       <c r="G82" s="21" t="n"/>
       <c r="H82" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/aks/node-updates-kured</t>
+          <t>https://learn.microsoft.com/azure/architecture/example-scenario/bedrock/bedrock-automated-deployments</t>
         </is>
       </c>
       <c r="I82" s="15" t="n"/>
@@ -4484,7 +4484,7 @@
       <c r="K82" s="23" t="n"/>
       <c r="L82" s="25" t="inlineStr">
         <is>
-          <t>6f7c4c0d-4e51-4464-ad24-57ed67138b82</t>
+          <t>0102ce16-ee30-41e6-b882-e52e4621dd68</t>
         </is>
       </c>
       <c r="M82" s="25" t="n"/>
@@ -4505,13 +4505,13 @@
       </c>
       <c r="C83" s="21" t="inlineStr">
         <is>
-          <t>Have a regular process to upgrade the cluster node images periodically (weekly, for example)</t>
+          <t>Consider using AKS command invoke on private clusters</t>
         </is>
       </c>
       <c r="D83" s="21" t="n"/>
       <c r="E83" s="21" t="inlineStr">
         <is>
-          <t>High</t>
+          <t>Low</t>
         </is>
       </c>
       <c r="F83" t="inlineStr">
@@ -4522,7 +4522,7 @@
       <c r="G83" s="21" t="n"/>
       <c r="H83" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/aks/node-image-upgrade</t>
+          <t>https://learn.microsoft.com/azure/aks/command-invoke</t>
         </is>
       </c>
       <c r="I83" s="15" t="n"/>
@@ -4530,7 +4530,7 @@
       <c r="K83" s="22" t="n"/>
       <c r="L83" s="25" t="inlineStr">
         <is>
-          <t>139c9580-ade3-426a-ba09-cf157d9f6477</t>
+          <t>d7672c26-7602-4482-85a4-14527fbe855c</t>
         </is>
       </c>
       <c r="M83" s="25" t="n"/>
@@ -4551,7 +4551,7 @@
       </c>
       <c r="C84" s="21" t="inlineStr">
         <is>
-          <t>Consider gitops to deploy applications or cluster configuration to multiple clusters</t>
+          <t>For planned events consider using Node Auto Drain</t>
         </is>
       </c>
       <c r="D84" s="21" t="n"/>
@@ -4568,7 +4568,7 @@
       <c r="G84" s="21" t="n"/>
       <c r="H84" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/architecture/example-scenario/bedrock/bedrock-automated-deployments</t>
+          <t>https://learn.microsoft.com/azure/aks/node-auto-repair#node-autodrain</t>
         </is>
       </c>
       <c r="I84" s="15" t="n"/>
@@ -4576,7 +4576,7 @@
       <c r="K84" s="22" t="n"/>
       <c r="L84" s="25" t="inlineStr">
         <is>
-          <t>0102ce16-ee30-41e6-b882-e52e4621dd68</t>
+          <t>31d7aaab-7571-4449-ab80-53d89e89d17b</t>
         </is>
       </c>
       <c r="M84" s="25" t="n"/>
@@ -4597,13 +4597,13 @@
       </c>
       <c r="C85" s="21" t="inlineStr">
         <is>
-          <t>Consider using AKS command invoke on private clusters</t>
+          <t>Develop own governance practices to make sure no changes are performed by operators in the node RG (aka 'infra RG')</t>
         </is>
       </c>
       <c r="D85" s="21" t="n"/>
       <c r="E85" s="21" t="inlineStr">
         <is>
-          <t>Low</t>
+          <t>High</t>
         </is>
       </c>
       <c r="F85" t="inlineStr">
@@ -4614,7 +4614,7 @@
       <c r="G85" s="21" t="n"/>
       <c r="H85" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/aks/command-invoke</t>
+          <t>https://learn.microsoft.com/azure/aks/faq</t>
         </is>
       </c>
       <c r="I85" s="15" t="n"/>
@@ -4622,7 +4622,7 @@
       <c r="K85" s="22" t="n"/>
       <c r="L85" s="25" t="inlineStr">
         <is>
-          <t>d7672c26-7602-4482-85a4-14527fbe855c</t>
+          <t>ed0fda7f-211b-47c7-8b6e-c18873fb473c</t>
         </is>
       </c>
       <c r="M85" s="25" t="n"/>
@@ -4643,7 +4643,7 @@
       </c>
       <c r="C86" s="21" t="inlineStr">
         <is>
-          <t>For planned events consider using Node Auto Drain</t>
+          <t>Use custom Node RG (aka 'Infra RG') name</t>
         </is>
       </c>
       <c r="D86" s="21" t="n"/>
@@ -4660,7 +4660,7 @@
       <c r="G86" s="21" t="n"/>
       <c r="H86" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/aks/node-auto-repair#node-autodrain</t>
+          <t>https://learn.microsoft.com/azure/aks/cluster-configuration</t>
         </is>
       </c>
       <c r="I86" s="15" t="n"/>
@@ -4668,7 +4668,7 @@
       <c r="K86" s="22" t="n"/>
       <c r="L86" s="25" t="inlineStr">
         <is>
-          <t>31d7aaab-7571-4449-ab80-53d89e89d17b</t>
+          <t>73b32a5a-67f7-4a9e-b5b3-1f38c3f39812</t>
         </is>
       </c>
       <c r="M86" s="25" t="n"/>
@@ -4689,13 +4689,13 @@
       </c>
       <c r="C87" s="21" t="inlineStr">
         <is>
-          <t>Develop own governance practices to make sure no changes are performed by operators in the node RG (aka 'infra RG')</t>
+          <t>Do not use deprecated Kubernetes APIs in your YAML manifests</t>
         </is>
       </c>
       <c r="D87" s="21" t="n"/>
       <c r="E87" s="21" t="inlineStr">
         <is>
-          <t>High</t>
+          <t>Medium</t>
         </is>
       </c>
       <c r="F87" t="inlineStr">
@@ -4706,7 +4706,7 @@
       <c r="G87" s="21" t="n"/>
       <c r="H87" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/aks/faq</t>
+          <t>https://kubernetes.io/docs/setup/release/notes/</t>
         </is>
       </c>
       <c r="I87" s="15" t="n"/>
@@ -4714,7 +4714,7 @@
       <c r="K87" s="22" t="n"/>
       <c r="L87" s="25" t="inlineStr">
         <is>
-          <t>ed0fda7f-211b-47c7-8b6e-c18873fb473c</t>
+          <t>b2463cff-e189-4c59-adf0-d5a73dd4ce32</t>
         </is>
       </c>
       <c r="M87" s="25" t="n"/>
@@ -4735,7 +4735,7 @@
       </c>
       <c r="C88" s="21" t="inlineStr">
         <is>
-          <t>Use custom Node RG (aka 'Infra RG') name</t>
+          <t>Taint Windows nodes</t>
         </is>
       </c>
       <c r="D88" s="21" t="n"/>
@@ -4752,7 +4752,7 @@
       <c r="G88" s="21" t="n"/>
       <c r="H88" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/aks/cluster-configuration</t>
+          <t>https://learn.microsoft.com/azure-stack/aks-hci/adapt-apps-mixed-os-clusters</t>
         </is>
       </c>
       <c r="I88" s="15" t="n"/>
@@ -4760,7 +4760,7 @@
       <c r="K88" s="22" t="n"/>
       <c r="L88" s="25" t="inlineStr">
         <is>
-          <t>73b32a5a-67f7-4a9e-b5b3-1f38c3f39812</t>
+          <t>c1881370-6f7c-44c0-b4e5-14648d2457ed</t>
         </is>
       </c>
       <c r="M88" s="25" t="n"/>
@@ -4781,13 +4781,13 @@
       </c>
       <c r="C89" s="21" t="inlineStr">
         <is>
-          <t>Do not use deprecated Kubernetes APIs in your YAML manifests</t>
+          <t>Keep windows containers patch level in sync with host patch level</t>
         </is>
       </c>
       <c r="D89" s="21" t="n"/>
       <c r="E89" s="21" t="inlineStr">
         <is>
-          <t>Medium</t>
+          <t>Low</t>
         </is>
       </c>
       <c r="F89" t="inlineStr">
@@ -4798,7 +4798,7 @@
       <c r="G89" s="21" t="n"/>
       <c r="H89" s="15" t="inlineStr">
         <is>
-          <t>https://kubernetes.io/docs/setup/release/notes/</t>
+          <t>https://learn.microsoft.com/virtualization/windowscontainers/deploy-containers/version-compatibility?tabs=windows-server-20H2%2Cwindows-10-20H2</t>
         </is>
       </c>
       <c r="I89" s="15" t="n"/>
@@ -4806,7 +4806,7 @@
       <c r="K89" s="22" t="n"/>
       <c r="L89" s="25" t="inlineStr">
         <is>
-          <t>b2463cff-e189-4c59-adf0-d5a73dd4ce32</t>
+          <t>67138b82-0102-4ce1-9ee3-01e6e882e52e</t>
         </is>
       </c>
       <c r="M89" s="25" t="n"/>
@@ -4827,10 +4827,14 @@
       </c>
       <c r="C90" s="21" t="inlineStr">
         <is>
-          <t>Taint Windows nodes</t>
-        </is>
-      </c>
-      <c r="D90" s="21" t="n"/>
+          <t>Send master logs (aka API logs) to Azure Monitor or your preferred log management solution</t>
+        </is>
+      </c>
+      <c r="D90" s="21" t="inlineStr">
+        <is>
+          <t>Via Diagnostic Settings at the cluster level</t>
+        </is>
+      </c>
       <c r="E90" s="21" t="inlineStr">
         <is>
           <t>Low</t>
@@ -4844,7 +4848,7 @@
       <c r="G90" s="21" t="n"/>
       <c r="H90" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure-stack/aks-hci/adapt-apps-mixed-os-clusters</t>
+          <t>https://learn.microsoft.com/azure/aks/monitor-aks</t>
         </is>
       </c>
       <c r="I90" s="15" t="n"/>
@@ -4852,7 +4856,7 @@
       <c r="K90" s="22" t="n"/>
       <c r="L90" s="25" t="inlineStr">
         <is>
-          <t>c1881370-6f7c-44c0-b4e5-14648d2457ed</t>
+          <t>5b56ad48-408f-4e72-934c-476ba280dcf5</t>
         </is>
       </c>
       <c r="M90" s="25" t="n"/>
@@ -4873,7 +4877,7 @@
       </c>
       <c r="C91" s="21" t="inlineStr">
         <is>
-          <t>Keep windows containers patch level in sync with host patch level</t>
+          <t>If required use nodePool snapshots</t>
         </is>
       </c>
       <c r="D91" s="21" t="n"/>
@@ -4890,7 +4894,7 @@
       <c r="G91" s="21" t="n"/>
       <c r="H91" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/virtualization/windowscontainers/deploy-containers/version-compatibility?tabs=windows-server-20H2%2Cwindows-10-20H2</t>
+          <t>https://learn.microsoft.com/azure/aks/node-pool-snapshot</t>
         </is>
       </c>
       <c r="I91" s="15" t="n"/>
@@ -4898,7 +4902,7 @@
       <c r="K91" s="22" t="n"/>
       <c r="L91" s="25" t="inlineStr">
         <is>
-          <t>67138b82-0102-4ce1-9ee3-01e6e882e52e</t>
+          <t>64d1a846-e28a-4b6b-9a33-22a635c15a21</t>
         </is>
       </c>
       <c r="M91" s="25" t="n"/>
@@ -4914,19 +4918,15 @@
       </c>
       <c r="B92" s="21" t="inlineStr">
         <is>
-          <t>Compliance</t>
+          <t>Cost</t>
         </is>
       </c>
       <c r="C92" s="21" t="inlineStr">
         <is>
-          <t>Send master logs (aka API logs) to Azure Monitor or your preferred log management solution</t>
-        </is>
-      </c>
-      <c r="D92" s="21" t="inlineStr">
-        <is>
-          <t>Via Diagnostic Settings at the cluster level</t>
-        </is>
-      </c>
+          <t>Consider spot node pools for non time-sensitive workloads</t>
+        </is>
+      </c>
+      <c r="D92" s="21" t="n"/>
       <c r="E92" s="21" t="inlineStr">
         <is>
           <t>Low</t>
@@ -4940,7 +4940,7 @@
       <c r="G92" s="21" t="n"/>
       <c r="H92" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/aks/monitor-aks</t>
+          <t>https://learn.microsoft.com/azure/aks/spot-node-pool</t>
         </is>
       </c>
       <c r="I92" s="15" t="n"/>
@@ -4948,7 +4948,7 @@
       <c r="K92" s="22" t="n"/>
       <c r="L92" s="25" t="inlineStr">
         <is>
-          <t>5b56ad48-408f-4e72-934c-476ba280dcf5</t>
+          <t>c5a5b252-1e44-4a59-a9d2-399c4d7b68d0</t>
         </is>
       </c>
       <c r="M92" s="25" t="n"/>
@@ -4969,7 +4969,7 @@
       </c>
       <c r="C93" s="21" t="inlineStr">
         <is>
-          <t>Consider spot node pools for non time-sensitive workloads</t>
+          <t>Consider AKS virtual node for quick bursting</t>
         </is>
       </c>
       <c r="D93" s="21" t="n"/>
@@ -4986,7 +4986,7 @@
       <c r="G93" s="21" t="n"/>
       <c r="H93" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/aks/spot-node-pool</t>
+          <t>https://learn.microsoft.com/azure/aks/concepts-scale</t>
         </is>
       </c>
       <c r="I93" s="15" t="n"/>
@@ -4994,7 +4994,7 @@
       <c r="K93" s="22" t="n"/>
       <c r="L93" s="25" t="inlineStr">
         <is>
-          <t>c5a5b252-1e44-4a59-a9d2-399c4d7b68d0</t>
+          <t>c755562f-2b4e-4456-9b4d-874a748b662e</t>
         </is>
       </c>
       <c r="M93" s="25" t="n"/>
@@ -5010,18 +5010,18 @@
       </c>
       <c r="B94" s="21" t="inlineStr">
         <is>
-          <t>Cost</t>
+          <t>Monitoring</t>
         </is>
       </c>
       <c r="C94" s="21" t="inlineStr">
         <is>
-          <t>Consider AKS virtual node for quick bursting</t>
+          <t>Monitor your cluster metrics with Container Insights (or other tools like Prometheus)</t>
         </is>
       </c>
       <c r="D94" s="21" t="n"/>
       <c r="E94" s="21" t="inlineStr">
         <is>
-          <t>Low</t>
+          <t>High</t>
         </is>
       </c>
       <c r="F94" t="inlineStr">
@@ -5032,7 +5032,7 @@
       <c r="G94" s="21" t="n"/>
       <c r="H94" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/aks/concepts-scale</t>
+          <t>https://learn.microsoft.com/azure/azure-monitor/insights/container-insights-overview</t>
         </is>
       </c>
       <c r="I94" s="15" t="n"/>
@@ -5040,7 +5040,7 @@
       <c r="K94" s="22" t="n"/>
       <c r="L94" s="25" t="inlineStr">
         <is>
-          <t>c755562f-2b4e-4456-9b4d-874a748b662e</t>
+          <t>6f8389a7-f82c-4b8e-a8c0-aa63a25a4956</t>
         </is>
       </c>
       <c r="M94" s="25" t="n"/>
@@ -5061,7 +5061,7 @@
       </c>
       <c r="C95" s="21" t="inlineStr">
         <is>
-          <t>Monitor your cluster metrics with Container Insights (or other tools like Prometheus)</t>
+          <t>Store and analyze your cluster logs with Container Insights (or other tools like Telegraf/ElasticSearch)</t>
         </is>
       </c>
       <c r="D95" s="21" t="n"/>
@@ -5086,7 +5086,7 @@
       <c r="K95" s="22" t="n"/>
       <c r="L95" s="25" t="inlineStr">
         <is>
-          <t>6f8389a7-f82c-4b8e-a8c0-aa63a25a4956</t>
+          <t>eaa8dc4a-2436-47b3-9697-15b1752beee0</t>
         </is>
       </c>
       <c r="M95" s="25" t="n"/>
@@ -5107,13 +5107,13 @@
       </c>
       <c r="C96" s="21" t="inlineStr">
         <is>
-          <t>Store and analyze your cluster logs with Container Insights (or other tools like Telegraf/ElasticSearch)</t>
+          <t>Monitor CPU and memory utilization of the nodes</t>
         </is>
       </c>
       <c r="D96" s="21" t="n"/>
       <c r="E96" s="21" t="inlineStr">
         <is>
-          <t>High</t>
+          <t>Medium</t>
         </is>
       </c>
       <c r="F96" t="inlineStr">
@@ -5124,7 +5124,7 @@
       <c r="G96" s="21" t="n"/>
       <c r="H96" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/azure-monitor/insights/container-insights-overview</t>
+          <t>https://learn.microsoft.com/azure/azure-monitor/containers/container-insights-analyze</t>
         </is>
       </c>
       <c r="I96" s="15" t="n"/>
@@ -5132,7 +5132,7 @@
       <c r="K96" s="22" t="n"/>
       <c r="L96" s="25" t="inlineStr">
         <is>
-          <t>eaa8dc4a-2436-47b3-9697-15b1752beee0</t>
+          <t>4621dd68-c5a5-4be2-bdb1-1726769ef669</t>
         </is>
       </c>
       <c r="M96" s="25" t="n"/>
@@ -5153,7 +5153,7 @@
       </c>
       <c r="C97" s="21" t="inlineStr">
         <is>
-          <t>Monitor CPU and memory utilization of the nodes</t>
+          <t>If using Azure CNI, monitor % of pod IPs consumed per node</t>
         </is>
       </c>
       <c r="D97" s="21" t="n"/>
@@ -5170,7 +5170,7 @@
       <c r="G97" s="21" t="n"/>
       <c r="H97" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/azure-monitor/containers/container-insights-analyze</t>
+          <t>https://learn.microsoft.com/azure/aks/configure-azure-cni</t>
         </is>
       </c>
       <c r="I97" s="15" t="n"/>
@@ -5178,7 +5178,7 @@
       <c r="K97" s="22" t="n"/>
       <c r="L97" s="25" t="inlineStr">
         <is>
-          <t>4621dd68-c5a5-4be2-bdb1-1726769ef669</t>
+          <t>1a4835ac-9422-423e-ae80-b123081a5417</t>
         </is>
       </c>
       <c r="M97" s="25" t="n"/>
@@ -5199,10 +5199,14 @@
       </c>
       <c r="C98" s="21" t="inlineStr">
         <is>
-          <t>If using Azure CNI, monitor % of pod IPs consumed per node</t>
-        </is>
-      </c>
-      <c r="D98" s="21" t="n"/>
+          <t>Monitor OS disk queue depth in nodes</t>
+        </is>
+      </c>
+      <c r="D98" s="21" t="inlineStr">
+        <is>
+          <t>I/O in the OS disk is a critical resource. If the OS in the nodes gets throttled on I/O, this could lead to unpredictable behavior, typically ending up in node being declared NotReady</t>
+        </is>
+      </c>
       <c r="E98" s="21" t="inlineStr">
         <is>
           <t>Medium</t>
@@ -5216,7 +5220,7 @@
       <c r="G98" s="21" t="n"/>
       <c r="H98" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/aks/configure-azure-cni</t>
+          <t>https://learn.microsoft.com/azure/virtual-machines/premium-storage-performance</t>
         </is>
       </c>
       <c r="I98" s="15" t="n"/>
@@ -5224,7 +5228,7 @@
       <c r="K98" s="22" t="n"/>
       <c r="L98" s="25" t="inlineStr">
         <is>
-          <t>1a4835ac-9422-423e-ae80-b123081a5417</t>
+          <t>415833ea-3ad3-4c2d-b733-165c3acbe04b</t>
         </is>
       </c>
       <c r="M98" s="25" t="n"/>
@@ -5245,14 +5249,10 @@
       </c>
       <c r="C99" s="21" t="inlineStr">
         <is>
-          <t>Monitor OS disk queue depth in nodes</t>
-        </is>
-      </c>
-      <c r="D99" s="21" t="inlineStr">
-        <is>
-          <t>I/O in the OS disk is a critical resource. If the OS in the nodes gets throttled on I/O, this could lead to unpredictable behavior, typically ending up in node being declared NotReady</t>
-        </is>
-      </c>
+          <t>If not using egress filtering with AzFW/NVA, monitor standard ALB allocated SNAT ports</t>
+        </is>
+      </c>
+      <c r="D99" s="21" t="n"/>
       <c r="E99" s="21" t="inlineStr">
         <is>
           <t>Medium</t>
@@ -5266,7 +5266,7 @@
       <c r="G99" s="21" t="n"/>
       <c r="H99" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/virtual-machines/premium-storage-performance</t>
+          <t>https://learn.microsoft.com/azure/aks/load-balancer-standard</t>
         </is>
       </c>
       <c r="I99" s="15" t="n"/>
@@ -5274,7 +5274,7 @@
       <c r="K99" s="22" t="n"/>
       <c r="L99" s="25" t="inlineStr">
         <is>
-          <t>415833ea-3ad3-4c2d-b733-165c3acbe04b</t>
+          <t>be209d39-fda4-4777-a424-d116785c2fa5</t>
         </is>
       </c>
       <c r="M99" s="25" t="n"/>
@@ -5295,7 +5295,7 @@
       </c>
       <c r="C100" s="21" t="inlineStr">
         <is>
-          <t>If not using egress filtering with AzFW/NVA, monitor standard ALB allocated SNAT ports</t>
+          <t>Subscribe to resource health notifications for your AKS cluster</t>
         </is>
       </c>
       <c r="D100" s="21" t="n"/>
@@ -5312,7 +5312,7 @@
       <c r="G100" s="21" t="n"/>
       <c r="H100" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/aks/load-balancer-standard</t>
+          <t>https://learn.microsoft.com/azure/aks/aks-resource-health</t>
         </is>
       </c>
       <c r="I100" s="15" t="n"/>
@@ -5320,7 +5320,7 @@
       <c r="K100" s="22" t="n"/>
       <c r="L100" s="25" t="inlineStr">
         <is>
-          <t>be209d39-fda4-4777-a424-d116785c2fa5</t>
+          <t>74c2ee76-569b-4a79-a57e-dedf91b022c9</t>
         </is>
       </c>
       <c r="M100" s="25" t="n"/>
@@ -5336,18 +5336,18 @@
       </c>
       <c r="B101" s="21" t="inlineStr">
         <is>
-          <t>Monitoring</t>
+          <t>Resources</t>
         </is>
       </c>
       <c r="C101" s="21" t="inlineStr">
         <is>
-          <t>Subscribe to resource health notifications for your AKS cluster</t>
+          <t>Configure requests and limits in your pod specs</t>
         </is>
       </c>
       <c r="D101" s="21" t="n"/>
       <c r="E101" s="21" t="inlineStr">
         <is>
-          <t>Medium</t>
+          <t>High</t>
         </is>
       </c>
       <c r="F101" t="inlineStr">
@@ -5358,7 +5358,7 @@
       <c r="G101" s="21" t="n"/>
       <c r="H101" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/aks/aks-resource-health</t>
+          <t>https://learn.microsoft.com/azure/aks/operator-best-practices-scheduler</t>
         </is>
       </c>
       <c r="I101" s="15" t="n"/>
@@ -5366,7 +5366,7 @@
       <c r="K101" s="22" t="n"/>
       <c r="L101" s="25" t="inlineStr">
         <is>
-          <t>74c2ee76-569b-4a79-a57e-dedf91b022c9</t>
+          <t>b54eb2eb-03dd-4aa3-9927-18e2edb11726</t>
         </is>
       </c>
       <c r="M101" s="25" t="n"/>
@@ -5387,13 +5387,13 @@
       </c>
       <c r="C102" s="21" t="inlineStr">
         <is>
-          <t>Configure requests and limits in your pod specs</t>
+          <t>Enforce resource quotas for namespaces</t>
         </is>
       </c>
       <c r="D102" s="21" t="n"/>
       <c r="E102" s="21" t="inlineStr">
         <is>
-          <t>High</t>
+          <t>Medium</t>
         </is>
       </c>
       <c r="F102" t="inlineStr">
@@ -5412,7 +5412,7 @@
       <c r="K102" s="22" t="n"/>
       <c r="L102" s="25" t="inlineStr">
         <is>
-          <t>b54eb2eb-03dd-4aa3-9927-18e2edb11726</t>
+          <t>769ef669-1a48-435a-a942-223ece80b123</t>
         </is>
       </c>
       <c r="M102" s="25" t="n"/>
@@ -5433,13 +5433,13 @@
       </c>
       <c r="C103" s="21" t="inlineStr">
         <is>
-          <t>Enforce resource quotas for namespaces</t>
+          <t>Ensure your subscription has enough quota to scale out your nodepools</t>
         </is>
       </c>
       <c r="D103" s="21" t="n"/>
       <c r="E103" s="21" t="inlineStr">
         <is>
-          <t>Medium</t>
+          <t>High</t>
         </is>
       </c>
       <c r="F103" t="inlineStr">
@@ -5450,7 +5450,7 @@
       <c r="G103" s="21" t="n"/>
       <c r="H103" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/aks/operator-best-practices-scheduler</t>
+          <t>https://learn.microsoft.com/azure/azure-resource-manager/management/azure-subscription-service-limits</t>
         </is>
       </c>
       <c r="I103" s="15" t="n"/>
@@ -5458,7 +5458,7 @@
       <c r="K103" s="22" t="n"/>
       <c r="L103" s="25" t="inlineStr">
         <is>
-          <t>769ef669-1a48-435a-a942-223ece80b123</t>
+          <t>081a5417-4158-433e-a3ad-3c2de733165c</t>
         </is>
       </c>
       <c r="M103" s="25" t="n"/>
@@ -5474,18 +5474,18 @@
       </c>
       <c r="B104" s="21" t="inlineStr">
         <is>
-          <t>Resources</t>
+          <t>Scalability</t>
         </is>
       </c>
       <c r="C104" s="21" t="inlineStr">
         <is>
-          <t>Ensure your subscription has enough quota to scale out your nodepools</t>
+          <t>Use the Cluster Autoscaler</t>
         </is>
       </c>
       <c r="D104" s="21" t="n"/>
       <c r="E104" s="21" t="inlineStr">
         <is>
-          <t>High</t>
+          <t>Medium</t>
         </is>
       </c>
       <c r="F104" t="inlineStr">
@@ -5496,7 +5496,7 @@
       <c r="G104" s="21" t="n"/>
       <c r="H104" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/azure-resource-manager/management/azure-subscription-service-limits</t>
+          <t>https://learn.microsoft.com/azure/aks/concepts-scale</t>
         </is>
       </c>
       <c r="I104" s="15" t="n"/>
@@ -5504,7 +5504,7 @@
       <c r="K104" s="22" t="n"/>
       <c r="L104" s="25" t="inlineStr">
         <is>
-          <t>081a5417-4158-433e-a3ad-3c2de733165c</t>
+          <t>90ce65de-8e13-4f9c-abd4-69266abca264</t>
         </is>
       </c>
       <c r="M104" s="25" t="n"/>
@@ -5525,13 +5525,13 @@
       </c>
       <c r="C105" s="21" t="inlineStr">
         <is>
-          <t>Use the Cluster Autoscaler</t>
+          <t>Customize node configuration for AKS node pools</t>
         </is>
       </c>
       <c r="D105" s="21" t="n"/>
       <c r="E105" s="21" t="inlineStr">
         <is>
-          <t>Medium</t>
+          <t>Low</t>
         </is>
       </c>
       <c r="F105" t="inlineStr">
@@ -5542,7 +5542,7 @@
       <c r="G105" s="21" t="n"/>
       <c r="H105" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/aks/concepts-scale</t>
+          <t>https://learn.microsoft.com/azure/aks/custom-node-configuration</t>
         </is>
       </c>
       <c r="I105" s="15" t="n"/>
@@ -5550,7 +5550,7 @@
       <c r="K105" s="22" t="n"/>
       <c r="L105" s="25" t="inlineStr">
         <is>
-          <t>90ce65de-8e13-4f9c-abd4-69266abca264</t>
+          <t>831c2872-c693-4b39-a887-a561bada49bc</t>
         </is>
       </c>
       <c r="M105" s="25" t="n"/>
@@ -5571,13 +5571,13 @@
       </c>
       <c r="C106" s="21" t="inlineStr">
         <is>
-          <t>Customize node configuration for AKS node pools</t>
+          <t>Use the Horizontal Pod Autoscaler when required</t>
         </is>
       </c>
       <c r="D106" s="21" t="n"/>
       <c r="E106" s="21" t="inlineStr">
         <is>
-          <t>Low</t>
+          <t>Medium</t>
         </is>
       </c>
       <c r="F106" t="inlineStr">
@@ -5588,7 +5588,7 @@
       <c r="G106" s="21" t="n"/>
       <c r="H106" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/aks/custom-node-configuration</t>
+          <t>https://learn.microsoft.com/azure/aks/concepts-scale</t>
         </is>
       </c>
       <c r="I106" s="15" t="n"/>
@@ -5596,7 +5596,7 @@
       <c r="K106" s="22" t="n"/>
       <c r="L106" s="25" t="inlineStr">
         <is>
-          <t>831c2872-c693-4b39-a887-a561bada49bc</t>
+          <t>faa19bfe-9d55-4d04-a3c4-919ca1b2d121</t>
         </is>
       </c>
       <c r="M106" s="25" t="n"/>
@@ -5617,13 +5617,17 @@
       </c>
       <c r="C107" s="21" t="inlineStr">
         <is>
-          <t>Use the Horizontal Pod Autoscaler when required</t>
-        </is>
-      </c>
-      <c r="D107" s="21" t="n"/>
+          <t>Consider an appropriate node size, not too large or too small</t>
+        </is>
+      </c>
+      <c r="D107" s="21" t="inlineStr">
+        <is>
+          <t>Larger nodes will bring higher performance and features such as ephemeral disks and accelerated networking, but they will increase the blast radius and decrease the scaling granularity</t>
+        </is>
+      </c>
       <c r="E107" s="21" t="inlineStr">
         <is>
-          <t>Medium</t>
+          <t>High</t>
         </is>
       </c>
       <c r="F107" t="inlineStr">
@@ -5634,7 +5638,7 @@
       <c r="G107" s="21" t="n"/>
       <c r="H107" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/aks/concepts-scale</t>
+          <t>https://blog.cloudtrooper.net/2020/10/23/which-vm-size-should-i-choose-as-aks-node/</t>
         </is>
       </c>
       <c r="I107" s="15" t="n"/>
@@ -5642,7 +5646,7 @@
       <c r="K107" s="22" t="n"/>
       <c r="L107" s="25" t="inlineStr">
         <is>
-          <t>faa19bfe-9d55-4d04-a3c4-919ca1b2d121</t>
+          <t>5ae124ba-34df-4585-bcdc-e9bd3bb0cdb3</t>
         </is>
       </c>
       <c r="M107" s="25" t="n"/>
@@ -5663,17 +5667,13 @@
       </c>
       <c r="C108" s="21" t="inlineStr">
         <is>
-          <t>Consider an appropriate node size, not too large or too small</t>
-        </is>
-      </c>
-      <c r="D108" s="21" t="inlineStr">
-        <is>
-          <t>Larger nodes will bring higher performance and features such as ephemeral disks and accelerated networking, but they will increase the blast radius and decrease the scaling granularity</t>
-        </is>
-      </c>
+          <t>If more than 5000 nodes are required for scalability then consider using an additional AKS cluster</t>
+        </is>
+      </c>
+      <c r="D108" s="21" t="n"/>
       <c r="E108" s="21" t="inlineStr">
         <is>
-          <t>High</t>
+          <t>Low</t>
         </is>
       </c>
       <c r="F108" t="inlineStr">
@@ -5684,7 +5684,7 @@
       <c r="G108" s="21" t="n"/>
       <c r="H108" s="15" t="inlineStr">
         <is>
-          <t>https://blog.cloudtrooper.net/2020/10/23/which-vm-size-should-i-choose-as-aks-node/</t>
+          <t>https://learn.microsoft.com/azure/aks/quotas-skus-regions#service-quotas-and-limits</t>
         </is>
       </c>
       <c r="I108" s="15" t="n"/>
@@ -5692,7 +5692,7 @@
       <c r="K108" s="22" t="n"/>
       <c r="L108" s="25" t="inlineStr">
         <is>
-          <t>5ae124ba-34df-4585-bcdc-e9bd3bb0cdb3</t>
+          <t>38800e6a-ae01-40a2-9fbc-ae5a06e5462d</t>
         </is>
       </c>
       <c r="M108" s="25" t="n"/>
@@ -5713,7 +5713,7 @@
       </c>
       <c r="C109" s="21" t="inlineStr">
         <is>
-          <t>If more than 5000 nodes are required for scalability then consider using an additional AKS cluster</t>
+          <t>Consider subscribing to EventGrid Events for AKS automation</t>
         </is>
       </c>
       <c r="D109" s="21" t="n"/>
@@ -5730,7 +5730,7 @@
       <c r="G109" s="21" t="n"/>
       <c r="H109" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/aks/quotas-skus-regions#service-quotas-and-limits</t>
+          <t>https://learn.microsoft.com/azure/event-grid/event-schema-aks</t>
         </is>
       </c>
       <c r="I109" s="15" t="n"/>
@@ -5738,7 +5738,7 @@
       <c r="K109" s="22" t="n"/>
       <c r="L109" s="25" t="inlineStr">
         <is>
-          <t>38800e6a-ae01-40a2-9fbc-ae5a06e5462d</t>
+          <t>9583c0f6-6083-43f6-aa6b-df7102c901bb</t>
         </is>
       </c>
       <c r="M109" s="25" t="n"/>
@@ -5759,7 +5759,7 @@
       </c>
       <c r="C110" s="21" t="inlineStr">
         <is>
-          <t>Consider subscribing to EventGrid Events for AKS automation</t>
+          <t>For long running operation on an AKS cluster consider event termination</t>
         </is>
       </c>
       <c r="D110" s="21" t="n"/>
@@ -5776,7 +5776,7 @@
       <c r="G110" s="21" t="n"/>
       <c r="H110" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/event-grid/event-schema-aks</t>
+          <t>https://learn.microsoft.com/azure/aks/manage-abort-operations</t>
         </is>
       </c>
       <c r="I110" s="15" t="n"/>
@@ -5784,7 +5784,7 @@
       <c r="K110" s="22" t="n"/>
       <c r="L110" s="25" t="inlineStr">
         <is>
-          <t>9583c0f6-6083-43f6-aa6b-df7102c901bb</t>
+          <t>c5016d8c-c6c9-4165-89ae-673ef0fff19d</t>
         </is>
       </c>
       <c r="M110" s="25" t="n"/>
@@ -5805,7 +5805,7 @@
       </c>
       <c r="C111" s="21" t="inlineStr">
         <is>
-          <t>For long running operation on an AKS cluster consider event termination</t>
+          <t>If required consider using Azure Dedicated Hosts for AKS nodes</t>
         </is>
       </c>
       <c r="D111" s="21" t="n"/>
@@ -5822,14 +5822,14 @@
       <c r="G111" s="21" t="n"/>
       <c r="H111" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/aks/manage-abort-operations</t>
+          <t>https://learn.microsoft.com/azure/aks/use-azure-dedicated-hosts</t>
         </is>
       </c>
       <c r="J111" s="22" t="n"/>
       <c r="K111" s="22" t="n"/>
       <c r="L111" s="25" t="inlineStr">
         <is>
-          <t>c5016d8c-c6c9-4165-89ae-673ef0fff19d</t>
+          <t>c4e37133-f186-4ce1-aed9-9f1b32f6e021</t>
         </is>
       </c>
       <c r="M111" s="25" t="n"/>
@@ -5845,18 +5845,18 @@
       </c>
       <c r="B112" s="21" t="inlineStr">
         <is>
-          <t>Scalability</t>
+          <t>Storage</t>
         </is>
       </c>
       <c r="C112" s="21" t="inlineStr">
         <is>
-          <t>If required consider using Azure Dedicated Hosts for AKS nodes</t>
+          <t>Use ephemeral OS disks</t>
         </is>
       </c>
       <c r="D112" s="21" t="n"/>
       <c r="E112" s="21" t="inlineStr">
         <is>
-          <t>Low</t>
+          <t>High</t>
         </is>
       </c>
       <c r="F112" t="inlineStr">
@@ -5867,7 +5867,7 @@
       <c r="G112" s="21" t="n"/>
       <c r="H112" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/aks/use-azure-dedicated-hosts</t>
+          <t>https://learn.microsoft.com/azure/aks/cluster-configuration</t>
         </is>
       </c>
       <c r="I112" s="15" t="n"/>
@@ -5875,7 +5875,7 @@
       <c r="K112" s="23" t="n"/>
       <c r="L112" s="25" t="inlineStr">
         <is>
-          <t>c4e37133-f186-4ce1-aed9-9f1b32f6e021</t>
+          <t>24367b33-6971-45b1-952b-eee0b9b588de</t>
         </is>
       </c>
       <c r="M112" s="25" t="n"/>
@@ -5896,7 +5896,7 @@
       </c>
       <c r="C113" s="21" t="inlineStr">
         <is>
-          <t>Use ephemeral OS disks</t>
+          <t>For non-ephemeral disks, use high IOPS and larger OS disks for the nodes when running many pods/node since it requires high performance for running multiple pods and will generate huge logs with default AKS log rotation thresholds</t>
         </is>
       </c>
       <c r="D113" s="21" t="n"/>
@@ -5913,7 +5913,7 @@
       <c r="G113" s="21" t="n"/>
       <c r="H113" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/aks/cluster-configuration</t>
+          <t>https://learn.microsoft.com/azure/virtual-machines/disks-types</t>
         </is>
       </c>
       <c r="I113" s="15" t="n"/>
@@ -5921,7 +5921,7 @@
       <c r="K113" s="22" t="n"/>
       <c r="L113" s="25" t="inlineStr">
         <is>
-          <t>24367b33-6971-45b1-952b-eee0b9b588de</t>
+          <t>fc4972cc-3cd2-45bf-a707-6e9eab4bed32</t>
         </is>
       </c>
       <c r="M113" s="25" t="n"/>
@@ -5942,13 +5942,13 @@
       </c>
       <c r="C114" s="21" t="inlineStr">
         <is>
-          <t>For non-ephemeral disks, use high IOPS and larger OS disks for the nodes when running many pods/node since it requires high performance for running multiple pods and will generate huge logs with default AKS log rotation thresholds</t>
+          <t>For hyper performance storage option use Ultra Disks on AKS</t>
         </is>
       </c>
       <c r="D114" s="21" t="n"/>
       <c r="E114" s="21" t="inlineStr">
         <is>
-          <t>High</t>
+          <t>Low</t>
         </is>
       </c>
       <c r="F114" t="inlineStr">
@@ -5959,7 +5959,7 @@
       <c r="G114" s="21" t="n"/>
       <c r="H114" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/virtual-machines/disks-types</t>
+          <t>https://learn.microsoft.com/azure/aks/use-ultra-disks</t>
         </is>
       </c>
       <c r="I114" s="15" t="n"/>
@@ -5967,7 +5967,7 @@
       <c r="K114" s="22" t="n"/>
       <c r="L114" s="25" t="inlineStr">
         <is>
-          <t>fc4972cc-3cd2-45bf-a707-6e9eab4bed32</t>
+          <t>39c486ce-d5af-4062-89d5-18bb5fd795db</t>
         </is>
       </c>
       <c r="M114" s="25" t="n"/>
@@ -5988,13 +5988,13 @@
       </c>
       <c r="C115" s="21" t="inlineStr">
         <is>
-          <t>For hyper performance storage option use Ultra Disks on AKS</t>
+          <t>Avoid keeping state in the cluster, and store data outside (AzStorage, AzSQL, Cosmos, etc)</t>
         </is>
       </c>
       <c r="D115" s="21" t="n"/>
       <c r="E115" s="21" t="inlineStr">
         <is>
-          <t>Low</t>
+          <t>Medium</t>
         </is>
       </c>
       <c r="F115" t="inlineStr">
@@ -6005,14 +6005,14 @@
       <c r="G115" s="21" t="n"/>
       <c r="H115" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/aks/use-ultra-disks</t>
+          <t>https://learn.microsoft.com/azure/aks/operator-best-practices-multi-region</t>
         </is>
       </c>
       <c r="J115" s="22" t="n"/>
       <c r="K115" s="22" t="n"/>
       <c r="L115" s="25" t="inlineStr">
         <is>
-          <t>39c486ce-d5af-4062-89d5-18bb5fd795db</t>
+          <t>9f7547c1-747d-4c56-868a-714435bd19dd</t>
         </is>
       </c>
       <c r="M115" s="25" t="n"/>
@@ -6033,7 +6033,7 @@
       </c>
       <c r="C116" s="21" t="inlineStr">
         <is>
-          <t>Avoid keeping state in the cluster, and store data outside (AzStorage, AzSQL, Cosmos, etc)</t>
+          <t>If using AzFiles Standard, consider AzFiles Premium and/or ANF for performance reasons</t>
         </is>
       </c>
       <c r="D116" s="21" t="n"/>
@@ -6050,14 +6050,14 @@
       <c r="G116" s="21" t="n"/>
       <c r="H116" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/aks/operator-best-practices-multi-region</t>
+          <t>https://learn.microsoft.com/azure/aks/operator-best-practices-storage</t>
         </is>
       </c>
       <c r="J116" s="22" t="n"/>
       <c r="K116" s="22" t="n"/>
       <c r="L116" s="25" t="inlineStr">
         <is>
-          <t>9f7547c1-747d-4c56-868a-714435bd19dd</t>
+          <t>24429eb7-2281-4376-85cc-57b4a4b18142</t>
         </is>
       </c>
       <c r="M116" s="25" t="n"/>
@@ -6078,7 +6078,7 @@
       </c>
       <c r="C117" s="21" t="inlineStr">
         <is>
-          <t>If using AzFiles Standard, consider AzFiles Premium and/or ANF for performance reasons</t>
+          <t>If using Azure Disks and AZs, consider having nodepools within a zone for LRS disk with VolumeBindingMode:WaitForFirstConsumer for provisioning storage in right zone or use ZRS disk for nodepools spanning multiple zones</t>
         </is>
       </c>
       <c r="D117" s="21" t="n"/>
@@ -6095,14 +6095,14 @@
       <c r="G117" s="21" t="n"/>
       <c r="H117" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/aks/operator-best-practices-storage</t>
+          <t>https://learn.microsoft.com/azure/aks/availability-zones#azure-disk-availability-zone-support</t>
         </is>
       </c>
       <c r="J117" s="22" t="n"/>
       <c r="K117" s="22" t="n"/>
       <c r="L117" s="25" t="inlineStr">
         <is>
-          <t>24429eb7-2281-4376-85cc-57b4a4b18142</t>
+          <t>83958a8c-2689-4b32-ab57-cfc64546135a</t>
         </is>
       </c>
       <c r="M117" s="25" t="n"/>
@@ -6111,46 +6111,17 @@
       <c r="P117" s="25" t="n"/>
     </row>
     <row r="118" ht="16.5" customHeight="1">
-      <c r="A118" s="21" t="inlineStr">
-        <is>
-          <t>Operations</t>
-        </is>
-      </c>
-      <c r="B118" s="21" t="inlineStr">
-        <is>
-          <t>Storage</t>
-        </is>
-      </c>
-      <c r="C118" s="21" t="inlineStr">
-        <is>
-          <t>If using Azure Disks and AZs, consider having nodepools within a zone for LRS disk with VolumeBindingMode:WaitForFirstConsumer for provisioning storage in right zone or use ZRS disk for nodepools spanning multiple zones</t>
-        </is>
-      </c>
+      <c r="A118" s="21" t="n"/>
+      <c r="B118" s="21" t="n"/>
+      <c r="C118" s="21" t="n"/>
       <c r="D118" s="21" t="n"/>
-      <c r="E118" s="21" t="inlineStr">
-        <is>
-          <t>Medium</t>
-        </is>
-      </c>
-      <c r="F118" t="inlineStr">
-        <is>
-          <t>Not verified</t>
-        </is>
-      </c>
+      <c r="E118" s="21" t="n"/>
       <c r="G118" s="21" t="n"/>
-      <c r="H118" s="15" t="inlineStr">
-        <is>
-          <t>https://learn.microsoft.com/azure/aks/availability-zones#azure-disk-availability-zone-support</t>
-        </is>
-      </c>
+      <c r="H118" s="15" t="n"/>
       <c r="I118" s="15" t="n"/>
       <c r="J118" s="22" t="n"/>
       <c r="K118" s="22" t="n"/>
-      <c r="L118" s="25" t="inlineStr">
-        <is>
-          <t>83958a8c-2689-4b32-ab57-cfc64546135a</t>
-        </is>
-      </c>
+      <c r="L118" s="25" t="n"/>
       <c r="M118" s="25" t="n"/>
       <c r="N118" s="25" t="n"/>
       <c r="O118" s="25" t="n"/>
@@ -9042,7 +9013,7 @@
     </cfRule>
   </conditionalFormatting>
   <dataValidations count="1">
-    <dataValidation sqref="F8:F119" showDropDown="0" showInputMessage="0" showErrorMessage="0" allowBlank="1" type="list">
+    <dataValidation sqref="F8:F118" showDropDown="0" showInputMessage="0" showErrorMessage="0" allowBlank="1" type="list">
       <formula1>=Values!$B$2:$B$6</formula1>
     </dataValidation>
   </dataValidations>

--- a/spreadsheet/macrofree/aks_checklist.en.xlsx
+++ b/spreadsheet/macrofree/aks_checklist.en.xlsx
@@ -2628,7 +2628,7 @@
       </c>
       <c r="C42" s="21" t="inlineStr">
         <is>
-          <t>For POD Identity Access Management use Azure AD Workload Identity (preview)</t>
+          <t>For Pod Identity Access Management use Azure AD Workload Identity (preview)</t>
         </is>
       </c>
       <c r="D42" s="21" t="n"/>
@@ -5921,7 +5921,7 @@
       <c r="K113" s="22" t="n"/>
       <c r="L113" s="25" t="inlineStr">
         <is>
-          <t>fc4972cc-3cd2-45bf-a707-6e9eab4bed32</t>
+          <t>f0ce315f-1120-4166-8206-94f2cf3a4d07</t>
         </is>
       </c>
       <c r="M113" s="25" t="n"/>

--- a/spreadsheet/macrofree/aks_checklist.en.xlsx
+++ b/spreadsheet/macrofree/aks_checklist.en.xlsx
@@ -2993,7 +2993,7 @@
       </c>
       <c r="C50" s="21" t="inlineStr">
         <is>
-          <t>Do not use AKS Application Routing Add-On</t>
+          <t>Do not use AKS HTTP Routing Add-On, use instead the managed NGINX ingress with the application routing add-on.</t>
         </is>
       </c>
       <c r="D50" s="21" t="n"/>
